--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.74935831175181</v>
+        <v>14.74935831175186</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.871543631210541</v>
+        <v>2.871543631210382</v>
       </c>
       <c r="E2">
-        <v>5.618128971393306</v>
+        <v>5.618128971393299</v>
       </c>
       <c r="F2">
-        <v>35.49822303794424</v>
+        <v>35.49822303794427</v>
       </c>
       <c r="G2">
-        <v>27.29669265648677</v>
+        <v>27.29669265648679</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.949712727590184</v>
+        <v>4.949712727590218</v>
       </c>
       <c r="J2">
-        <v>41.13198837661147</v>
+        <v>41.13198837661145</v>
       </c>
       <c r="K2">
-        <v>31.99349521478461</v>
+        <v>31.99349521478457</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69798833510344</v>
+        <v>13.69798833510351</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.632164874635805</v>
+        <v>2.632164874635735</v>
       </c>
       <c r="E3">
-        <v>5.696508000600756</v>
+        <v>5.696508000600563</v>
       </c>
       <c r="F3">
-        <v>33.19611166634071</v>
+        <v>33.19611166634061</v>
       </c>
       <c r="G3">
-        <v>25.60165262888058</v>
+        <v>25.60165262888048</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.141797545775214</v>
+        <v>5.141797545775082</v>
       </c>
       <c r="J3">
-        <v>38.26555182277696</v>
+        <v>38.26555182277699</v>
       </c>
       <c r="K3">
-        <v>29.73159109103235</v>
+        <v>29.73159109103237</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.02014956203204</v>
+        <v>13.02014956203208</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.483673286067037</v>
+        <v>2.483673286067092</v>
       </c>
       <c r="E4">
-        <v>5.747741051635245</v>
+        <v>5.747741051635124</v>
       </c>
       <c r="F4">
-        <v>31.79086121680677</v>
+        <v>31.79086121680667</v>
       </c>
       <c r="G4">
-        <v>24.57578389704511</v>
+        <v>24.57578389704505</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.261736151827631</v>
+        <v>5.261736151827632</v>
       </c>
       <c r="J4">
-        <v>36.41994649535227</v>
+        <v>36.41994649535228</v>
       </c>
       <c r="K4">
         <v>28.27739370527023</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.73563994636722</v>
+        <v>12.73563994636728</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.422660788973849</v>
+        <v>2.422660788973628</v>
       </c>
       <c r="E5">
-        <v>5.769393277448083</v>
+        <v>5.769393277448011</v>
       </c>
       <c r="F5">
-        <v>31.22037584665634</v>
+        <v>31.22037584665644</v>
       </c>
       <c r="G5">
-        <v>24.16153451759748</v>
+        <v>24.16153451759757</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.311177064982988</v>
+        <v>5.311177064983122</v>
       </c>
       <c r="J5">
-        <v>35.64580380769291</v>
+        <v>35.64580380769292</v>
       </c>
       <c r="K5">
-        <v>27.66789735813038</v>
+        <v>27.66789735813035</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.412496224577324</v>
+        <v>2.41249622457732</v>
       </c>
       <c r="E6">
-        <v>5.773035208026886</v>
+        <v>5.773035208026888</v>
       </c>
       <c r="F6">
-        <v>31.12578491662946</v>
+        <v>31.12578491662944</v>
       </c>
       <c r="G6">
-        <v>24.09298285972174</v>
+        <v>24.09298285972173</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>5.319422525478501</v>
       </c>
       <c r="J6">
-        <v>35.51591259452713</v>
+        <v>35.51591259452703</v>
       </c>
       <c r="K6">
-        <v>27.56565781472132</v>
+        <v>27.56565781472119</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01634631682636</v>
+        <v>13.01634631682637</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.482852626610582</v>
+        <v>2.482852626610652</v>
       </c>
       <c r="E7">
-        <v>5.748029933898113</v>
+        <v>5.74802993389798</v>
       </c>
       <c r="F7">
-        <v>31.7831584002527</v>
+        <v>31.78315840025268</v>
       </c>
       <c r="G7">
-        <v>24.57018160970513</v>
+        <v>24.57018160970511</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.262400563544249</v>
+        <v>5.262400563544149</v>
       </c>
       <c r="J7">
-        <v>36.40959603271538</v>
+        <v>36.40959603271532</v>
       </c>
       <c r="K7">
-        <v>28.2692428192129</v>
+        <v>28.26924281921286</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -646,28 +646,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.789241665581034</v>
+        <v>2.789241665580923</v>
       </c>
       <c r="E8">
-        <v>5.644504011590263</v>
+        <v>5.644504011590322</v>
       </c>
       <c r="F8">
-        <v>34.70272193953546</v>
+        <v>34.70272193953559</v>
       </c>
       <c r="G8">
-        <v>26.70913311298819</v>
+        <v>26.70913311298828</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.015568712700637</v>
+        <v>5.01556871270077</v>
       </c>
       <c r="J8">
-        <v>40.16107612740637</v>
+        <v>40.16107612740639</v>
       </c>
       <c r="K8">
-        <v>31.22686716058662</v>
+        <v>31.22686716058665</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.84610044660209</v>
+        <v>16.84610044660213</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.384536956233296</v>
+        <v>3.384536956233231</v>
       </c>
       <c r="E9">
-        <v>5.466604121967465</v>
+        <v>5.466604121967335</v>
       </c>
       <c r="F9">
-        <v>40.89227908320701</v>
+        <v>40.89227908320696</v>
       </c>
       <c r="G9">
-        <v>31.63195400466354</v>
+        <v>31.63195400466346</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.544163877898869</v>
+        <v>4.544163877898836</v>
       </c>
       <c r="J9">
-        <v>46.86556051879117</v>
+        <v>46.86556051879113</v>
       </c>
       <c r="K9">
-        <v>36.53186166688253</v>
+        <v>36.53186166688245</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.51057796171208</v>
+        <v>18.51057796171207</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.82953794232178</v>
+        <v>3.829537942321727</v>
       </c>
       <c r="E10">
-        <v>5.35211537847803</v>
+        <v>5.352115378478029</v>
       </c>
       <c r="F10">
-        <v>45.56433567305118</v>
+        <v>45.56433567305119</v>
       </c>
       <c r="G10">
-        <v>35.35311279974519</v>
+        <v>35.35311279974518</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.200283387282227</v>
+        <v>4.20028338728223</v>
       </c>
       <c r="J10">
-        <v>51.43847365285716</v>
+        <v>51.43847365285712</v>
       </c>
       <c r="K10">
-        <v>40.16709018699855</v>
+        <v>40.16709018699851</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.24165625184143</v>
+        <v>19.24165625184141</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.03685459454321</v>
+        <v>4.036854594543201</v>
       </c>
       <c r="E11">
-        <v>5.303866024121033</v>
+        <v>5.30386602412106</v>
       </c>
       <c r="F11">
-        <v>47.70509797541847</v>
+        <v>47.70509797541857</v>
       </c>
       <c r="G11">
-        <v>37.0558636222859</v>
+        <v>37.055863622286</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.042936744100071</v>
+        <v>4.042936744100002</v>
       </c>
       <c r="J11">
-        <v>53.45474304914596</v>
+        <v>53.4547430491459</v>
       </c>
       <c r="K11">
-        <v>41.77494023851101</v>
+        <v>41.77494023851099</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.51512549625012</v>
+        <v>19.51512549625016</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.116410811765773</v>
+        <v>4.116410811765645</v>
       </c>
       <c r="E12">
-        <v>5.286184874631236</v>
+        <v>5.286184874631209</v>
       </c>
       <c r="F12">
-        <v>48.52012558636333</v>
+        <v>48.52012558636338</v>
       </c>
       <c r="G12">
-        <v>37.70388064223724</v>
+        <v>37.70388064223727</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.983074105065253</v>
+        <v>3.983074105065288</v>
       </c>
       <c r="J12">
-        <v>54.21037105555603</v>
+        <v>54.21037105555608</v>
       </c>
       <c r="K12">
-        <v>42.37836341836761</v>
+        <v>42.37836341836766</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.45637220109565</v>
+        <v>19.45637220109561</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.099223809229163</v>
+        <v>4.099223809229111</v>
       </c>
       <c r="E13">
-        <v>5.289965832279385</v>
+        <v>5.289965832279538</v>
       </c>
       <c r="F13">
-        <v>48.34435952779554</v>
+        <v>48.34435952779564</v>
       </c>
       <c r="G13">
-        <v>37.56414139497414</v>
+        <v>37.56414139497423</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.995981663098612</v>
+        <v>3.995981663098813</v>
       </c>
       <c r="J13">
-        <v>54.0479599522488</v>
+        <v>54.04795995224879</v>
       </c>
       <c r="K13">
-        <v>42.24862596994823</v>
+        <v>42.24862596994821</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.2642199097737</v>
+        <v>19.26421990977378</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.043376397508744</v>
+        <v>4.043376397508753</v>
       </c>
       <c r="E14">
-        <v>5.302399294835655</v>
+        <v>5.302399294835563</v>
       </c>
       <c r="F14">
-        <v>47.77204869845831</v>
+        <v>47.77204869845848</v>
       </c>
       <c r="G14">
-        <v>37.10909976929677</v>
+        <v>37.1090997692969</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.038018346899634</v>
+        <v>4.038018346899602</v>
       </c>
       <c r="J14">
-        <v>53.51705860621124</v>
+        <v>53.51705860621133</v>
       </c>
       <c r="K14">
-        <v>41.82468561194374</v>
+        <v>41.82468561194377</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.14609420897778</v>
+        <v>19.14609420897775</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.009316719727337</v>
+        <v>4.009316719727334</v>
       </c>
       <c r="E15">
-        <v>5.310093337029376</v>
+        <v>5.310093337029445</v>
       </c>
       <c r="F15">
-        <v>47.42213500597192</v>
+        <v>47.42213500597181</v>
       </c>
       <c r="G15">
-        <v>36.83085478109863</v>
+        <v>36.83085478109851</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.063725840245265</v>
+        <v>4.063725840245402</v>
       </c>
       <c r="J15">
-        <v>53.1908824983101</v>
+        <v>53.19088249831005</v>
       </c>
       <c r="K15">
-        <v>41.56434076942662</v>
+        <v>41.56434076942656</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.4623057908886</v>
+        <v>18.46230579088863</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.816115470414858</v>
+        <v>3.816115470414854</v>
       </c>
       <c r="E16">
-        <v>5.355348731413585</v>
+        <v>5.35534873141351</v>
       </c>
       <c r="F16">
-        <v>45.42491218097386</v>
+        <v>45.42491218097391</v>
       </c>
       <c r="G16">
-        <v>35.24217669687082</v>
+        <v>35.24217669687086</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.210536001378375</v>
+        <v>4.210536001378308</v>
       </c>
       <c r="J16">
-        <v>51.30552414076317</v>
+        <v>51.30552414076314</v>
       </c>
       <c r="K16">
-        <v>40.06118440436789</v>
+        <v>40.06118440436786</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03638596062238</v>
+        <v>18.03638596062239</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.699066405915615</v>
+        <v>3.699066405915743</v>
       </c>
       <c r="E17">
-        <v>5.384116773571971</v>
+        <v>5.384116773572005</v>
       </c>
       <c r="F17">
-        <v>44.20497489472888</v>
+        <v>44.20497489472893</v>
       </c>
       <c r="G17">
-        <v>34.27125452523759</v>
+        <v>34.27125452523764</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.300268859256825</v>
+        <v>4.300268859256792</v>
       </c>
       <c r="J17">
-        <v>50.13338129458869</v>
+        <v>50.13338129458873</v>
       </c>
       <c r="K17">
-        <v>39.12805590950936</v>
+        <v>39.12805590950939</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.78892492508823</v>
+        <v>17.78892492508816</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.632177615216598</v>
+        <v>3.632177615216615</v>
       </c>
       <c r="E18">
-        <v>5.401021154402253</v>
+        <v>5.401021154402146</v>
       </c>
       <c r="F18">
-        <v>43.50458987854837</v>
+        <v>43.50458987854802</v>
       </c>
       <c r="G18">
-        <v>33.7136124942618</v>
+        <v>33.71361249426153</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.351805113552757</v>
+        <v>4.351805113552657</v>
       </c>
       <c r="J18">
-        <v>49.4530819292358</v>
+        <v>49.45308192923581</v>
       </c>
       <c r="K18">
-        <v>38.58694930722849</v>
+        <v>38.58694930722854</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.70470199493342</v>
+        <v>17.70470199493347</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.609595569955343</v>
+        <v>3.609595569955276</v>
       </c>
       <c r="E19">
-        <v>5.40680514881444</v>
+        <v>5.406805148814415</v>
       </c>
       <c r="F19">
-        <v>43.26761733039108</v>
+        <v>43.26761733039113</v>
       </c>
       <c r="G19">
-        <v>33.52489621330497</v>
+        <v>33.52489621330501</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>4.369245449366012</v>
       </c>
       <c r="J19">
-        <v>49.22165865960365</v>
+        <v>49.2216586596037</v>
       </c>
       <c r="K19">
-        <v>38.40295357463837</v>
+        <v>38.40295357463836</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.0819803449508</v>
+        <v>18.08198034495082</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.711479222741967</v>
+        <v>3.711479222742051</v>
       </c>
       <c r="E20">
-        <v>5.381017097919955</v>
+        <v>5.38101709792005</v>
       </c>
       <c r="F20">
-        <v>44.33469206876646</v>
+        <v>44.33469206876645</v>
       </c>
       <c r="G20">
         <v>34.37451593041919</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.290725458826496</v>
+        <v>4.290725458826529</v>
       </c>
       <c r="J20">
-        <v>50.25878204359328</v>
+        <v>50.25878204359331</v>
       </c>
       <c r="K20">
-        <v>39.22783637692131</v>
+        <v>39.22783637692126</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,28 +1140,28 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.059748450300302</v>
+        <v>4.059748450300137</v>
       </c>
       <c r="E21">
-        <v>5.298730902685914</v>
+        <v>5.298730902685974</v>
       </c>
       <c r="F21">
-        <v>47.94001146712809</v>
+        <v>47.94001146712824</v>
       </c>
       <c r="G21">
-        <v>37.24265233818023</v>
+        <v>37.24265233818032</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.025680043283033</v>
+        <v>4.025680043283132</v>
       </c>
       <c r="J21">
-        <v>53.6731994464568</v>
+        <v>53.67319944645682</v>
       </c>
       <c r="K21">
-        <v>41.94934418202951</v>
+        <v>41.94934418202953</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.11092266231852</v>
+        <v>20.11092266231851</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.293710052191833</v>
+        <v>4.29371005219177</v>
       </c>
       <c r="E22">
-        <v>5.24841870990411</v>
+        <v>5.248418709903889</v>
       </c>
       <c r="F22">
         <v>50.32323794232681</v>
       </c>
       <c r="G22">
-        <v>39.13714514297823</v>
+        <v>39.13714514297821</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.850740880858219</v>
+        <v>3.850740880858052</v>
       </c>
       <c r="J22">
-        <v>55.85956685830439</v>
+        <v>55.85956685830438</v>
       </c>
       <c r="K22">
-        <v>43.69706638981249</v>
+        <v>43.69706638981252</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.69082291287821</v>
+        <v>19.69082291287822</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.168121183168865</v>
+        <v>4.168121183168812</v>
       </c>
       <c r="E23">
-        <v>5.274937550176957</v>
+        <v>5.274937550176875</v>
       </c>
       <c r="F23">
-        <v>49.04791660018152</v>
+        <v>49.04791660018176</v>
       </c>
       <c r="G23">
-        <v>38.12346030336467</v>
+        <v>38.12346030336485</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.944323047469519</v>
+        <v>3.944323047469483</v>
       </c>
       <c r="J23">
-        <v>54.69628019507616</v>
+        <v>54.6962801950761</v>
       </c>
       <c r="K23">
-        <v>42.76665230939589</v>
+        <v>42.76665230939591</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.0613752312637</v>
+        <v>18.06137523126367</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.70586615410862</v>
+        <v>3.705866154108854</v>
       </c>
       <c r="E24">
-        <v>5.382417326347007</v>
+        <v>5.382417326347177</v>
       </c>
       <c r="F24">
-        <v>44.27604405694183</v>
+        <v>44.27604405694171</v>
       </c>
       <c r="G24">
-        <v>34.32782985153857</v>
+        <v>34.32782985153852</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.295040182507787</v>
+        <v>4.295040182507821</v>
       </c>
       <c r="J24">
         <v>50.20210845313223</v>
       </c>
       <c r="K24">
-        <v>39.18274015960196</v>
+        <v>39.18274015960188</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20784001388146</v>
+        <v>16.20784001388143</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.223075419001053</v>
+        <v>3.223075419001245</v>
       </c>
       <c r="E25">
-        <v>5.511965908103124</v>
+        <v>5.511965908103137</v>
       </c>
       <c r="F25">
-        <v>39.17417865476106</v>
+        <v>39.17417865476091</v>
       </c>
       <c r="G25">
-        <v>30.26097840067811</v>
+        <v>30.26097840067801</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.670832379945853</v>
+        <v>4.670832379945819</v>
       </c>
       <c r="J25">
-        <v>45.11746427629905</v>
+        <v>45.11746427629907</v>
       </c>
       <c r="K25">
-        <v>35.14602746586696</v>
+        <v>35.14602746586699</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.74935831175186</v>
+        <v>14.74935831175181</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.871543631210382</v>
+        <v>2.871543631210541</v>
       </c>
       <c r="E2">
-        <v>5.618128971393299</v>
+        <v>5.618128971393306</v>
       </c>
       <c r="F2">
-        <v>35.49822303794427</v>
+        <v>35.49822303794424</v>
       </c>
       <c r="G2">
-        <v>27.29669265648679</v>
+        <v>27.29669265648677</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.949712727590218</v>
+        <v>4.949712727590184</v>
       </c>
       <c r="J2">
-        <v>41.13198837661145</v>
+        <v>41.13198837661147</v>
       </c>
       <c r="K2">
-        <v>31.99349521478457</v>
+        <v>31.99349521478461</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69798833510351</v>
+        <v>13.69798833510344</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.632164874635735</v>
+        <v>2.632164874635805</v>
       </c>
       <c r="E3">
-        <v>5.696508000600563</v>
+        <v>5.696508000600756</v>
       </c>
       <c r="F3">
-        <v>33.19611166634061</v>
+        <v>33.19611166634071</v>
       </c>
       <c r="G3">
-        <v>25.60165262888048</v>
+        <v>25.60165262888058</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.141797545775082</v>
+        <v>5.141797545775214</v>
       </c>
       <c r="J3">
-        <v>38.26555182277699</v>
+        <v>38.26555182277696</v>
       </c>
       <c r="K3">
-        <v>29.73159109103237</v>
+        <v>29.73159109103235</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.02014956203208</v>
+        <v>13.02014956203204</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.483673286067092</v>
+        <v>2.483673286067037</v>
       </c>
       <c r="E4">
-        <v>5.747741051635124</v>
+        <v>5.747741051635245</v>
       </c>
       <c r="F4">
-        <v>31.79086121680667</v>
+        <v>31.79086121680677</v>
       </c>
       <c r="G4">
-        <v>24.57578389704505</v>
+        <v>24.57578389704511</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.261736151827632</v>
+        <v>5.261736151827631</v>
       </c>
       <c r="J4">
-        <v>36.41994649535228</v>
+        <v>36.41994649535227</v>
       </c>
       <c r="K4">
         <v>28.27739370527023</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.73563994636728</v>
+        <v>12.73563994636722</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.422660788973628</v>
+        <v>2.422660788973849</v>
       </c>
       <c r="E5">
-        <v>5.769393277448011</v>
+        <v>5.769393277448083</v>
       </c>
       <c r="F5">
-        <v>31.22037584665644</v>
+        <v>31.22037584665634</v>
       </c>
       <c r="G5">
-        <v>24.16153451759757</v>
+        <v>24.16153451759748</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.311177064983122</v>
+        <v>5.311177064982988</v>
       </c>
       <c r="J5">
-        <v>35.64580380769292</v>
+        <v>35.64580380769291</v>
       </c>
       <c r="K5">
-        <v>27.66789735813035</v>
+        <v>27.66789735813038</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.41249622457732</v>
+        <v>2.412496224577324</v>
       </c>
       <c r="E6">
-        <v>5.773035208026888</v>
+        <v>5.773035208026886</v>
       </c>
       <c r="F6">
-        <v>31.12578491662944</v>
+        <v>31.12578491662946</v>
       </c>
       <c r="G6">
-        <v>24.09298285972173</v>
+        <v>24.09298285972174</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>5.319422525478501</v>
       </c>
       <c r="J6">
-        <v>35.51591259452703</v>
+        <v>35.51591259452713</v>
       </c>
       <c r="K6">
-        <v>27.56565781472119</v>
+        <v>27.56565781472132</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01634631682637</v>
+        <v>13.01634631682636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.482852626610652</v>
+        <v>2.482852626610582</v>
       </c>
       <c r="E7">
-        <v>5.74802993389798</v>
+        <v>5.748029933898113</v>
       </c>
       <c r="F7">
-        <v>31.78315840025268</v>
+        <v>31.7831584002527</v>
       </c>
       <c r="G7">
-        <v>24.57018160970511</v>
+        <v>24.57018160970513</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.262400563544149</v>
+        <v>5.262400563544249</v>
       </c>
       <c r="J7">
-        <v>36.40959603271532</v>
+        <v>36.40959603271538</v>
       </c>
       <c r="K7">
-        <v>28.26924281921286</v>
+        <v>28.2692428192129</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -646,28 +646,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.789241665580923</v>
+        <v>2.789241665581034</v>
       </c>
       <c r="E8">
-        <v>5.644504011590322</v>
+        <v>5.644504011590263</v>
       </c>
       <c r="F8">
-        <v>34.70272193953559</v>
+        <v>34.70272193953546</v>
       </c>
       <c r="G8">
-        <v>26.70913311298828</v>
+        <v>26.70913311298819</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.01556871270077</v>
+        <v>5.015568712700637</v>
       </c>
       <c r="J8">
-        <v>40.16107612740639</v>
+        <v>40.16107612740637</v>
       </c>
       <c r="K8">
-        <v>31.22686716058665</v>
+        <v>31.22686716058662</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.84610044660213</v>
+        <v>16.84610044660209</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.384536956233231</v>
+        <v>3.384536956233296</v>
       </c>
       <c r="E9">
-        <v>5.466604121967335</v>
+        <v>5.466604121967465</v>
       </c>
       <c r="F9">
-        <v>40.89227908320696</v>
+        <v>40.89227908320701</v>
       </c>
       <c r="G9">
-        <v>31.63195400466346</v>
+        <v>31.63195400466354</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.544163877898836</v>
+        <v>4.544163877898869</v>
       </c>
       <c r="J9">
-        <v>46.86556051879113</v>
+        <v>46.86556051879117</v>
       </c>
       <c r="K9">
-        <v>36.53186166688245</v>
+        <v>36.53186166688253</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.51057796171207</v>
+        <v>18.51057796171208</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.829537942321727</v>
+        <v>3.82953794232178</v>
       </c>
       <c r="E10">
-        <v>5.352115378478029</v>
+        <v>5.35211537847803</v>
       </c>
       <c r="F10">
-        <v>45.56433567305119</v>
+        <v>45.56433567305118</v>
       </c>
       <c r="G10">
-        <v>35.35311279974518</v>
+        <v>35.35311279974519</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.20028338728223</v>
+        <v>4.200283387282227</v>
       </c>
       <c r="J10">
-        <v>51.43847365285712</v>
+        <v>51.43847365285716</v>
       </c>
       <c r="K10">
-        <v>40.16709018699851</v>
+        <v>40.16709018699855</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.24165625184141</v>
+        <v>19.24165625184143</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.036854594543201</v>
+        <v>4.03685459454321</v>
       </c>
       <c r="E11">
-        <v>5.30386602412106</v>
+        <v>5.303866024121033</v>
       </c>
       <c r="F11">
-        <v>47.70509797541857</v>
+        <v>47.70509797541847</v>
       </c>
       <c r="G11">
-        <v>37.055863622286</v>
+        <v>37.0558636222859</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.042936744100002</v>
+        <v>4.042936744100071</v>
       </c>
       <c r="J11">
-        <v>53.4547430491459</v>
+        <v>53.45474304914596</v>
       </c>
       <c r="K11">
-        <v>41.77494023851099</v>
+        <v>41.77494023851101</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.51512549625016</v>
+        <v>19.51512549625012</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.116410811765645</v>
+        <v>4.116410811765773</v>
       </c>
       <c r="E12">
-        <v>5.286184874631209</v>
+        <v>5.286184874631236</v>
       </c>
       <c r="F12">
-        <v>48.52012558636338</v>
+        <v>48.52012558636333</v>
       </c>
       <c r="G12">
-        <v>37.70388064223727</v>
+        <v>37.70388064223724</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.983074105065288</v>
+        <v>3.983074105065253</v>
       </c>
       <c r="J12">
-        <v>54.21037105555608</v>
+        <v>54.21037105555603</v>
       </c>
       <c r="K12">
-        <v>42.37836341836766</v>
+        <v>42.37836341836761</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.45637220109561</v>
+        <v>19.45637220109565</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.099223809229111</v>
+        <v>4.099223809229163</v>
       </c>
       <c r="E13">
-        <v>5.289965832279538</v>
+        <v>5.289965832279385</v>
       </c>
       <c r="F13">
-        <v>48.34435952779564</v>
+        <v>48.34435952779554</v>
       </c>
       <c r="G13">
-        <v>37.56414139497423</v>
+        <v>37.56414139497414</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.995981663098813</v>
+        <v>3.995981663098612</v>
       </c>
       <c r="J13">
-        <v>54.04795995224879</v>
+        <v>54.0479599522488</v>
       </c>
       <c r="K13">
-        <v>42.24862596994821</v>
+        <v>42.24862596994823</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.26421990977378</v>
+        <v>19.2642199097737</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.043376397508753</v>
+        <v>4.043376397508744</v>
       </c>
       <c r="E14">
-        <v>5.302399294835563</v>
+        <v>5.302399294835655</v>
       </c>
       <c r="F14">
-        <v>47.77204869845848</v>
+        <v>47.77204869845831</v>
       </c>
       <c r="G14">
-        <v>37.1090997692969</v>
+        <v>37.10909976929677</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.038018346899602</v>
+        <v>4.038018346899634</v>
       </c>
       <c r="J14">
-        <v>53.51705860621133</v>
+        <v>53.51705860621124</v>
       </c>
       <c r="K14">
-        <v>41.82468561194377</v>
+        <v>41.82468561194374</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.14609420897775</v>
+        <v>19.14609420897778</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.009316719727334</v>
+        <v>4.009316719727337</v>
       </c>
       <c r="E15">
-        <v>5.310093337029445</v>
+        <v>5.310093337029376</v>
       </c>
       <c r="F15">
-        <v>47.42213500597181</v>
+        <v>47.42213500597192</v>
       </c>
       <c r="G15">
-        <v>36.83085478109851</v>
+        <v>36.83085478109863</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.063725840245402</v>
+        <v>4.063725840245265</v>
       </c>
       <c r="J15">
-        <v>53.19088249831005</v>
+        <v>53.1908824983101</v>
       </c>
       <c r="K15">
-        <v>41.56434076942656</v>
+        <v>41.56434076942662</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.46230579088863</v>
+        <v>18.4623057908886</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.816115470414854</v>
+        <v>3.816115470414858</v>
       </c>
       <c r="E16">
-        <v>5.35534873141351</v>
+        <v>5.355348731413585</v>
       </c>
       <c r="F16">
-        <v>45.42491218097391</v>
+        <v>45.42491218097386</v>
       </c>
       <c r="G16">
-        <v>35.24217669687086</v>
+        <v>35.24217669687082</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.210536001378308</v>
+        <v>4.210536001378375</v>
       </c>
       <c r="J16">
-        <v>51.30552414076314</v>
+        <v>51.30552414076317</v>
       </c>
       <c r="K16">
-        <v>40.06118440436786</v>
+        <v>40.06118440436789</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03638596062239</v>
+        <v>18.03638596062238</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.699066405915743</v>
+        <v>3.699066405915615</v>
       </c>
       <c r="E17">
-        <v>5.384116773572005</v>
+        <v>5.384116773571971</v>
       </c>
       <c r="F17">
-        <v>44.20497489472893</v>
+        <v>44.20497489472888</v>
       </c>
       <c r="G17">
-        <v>34.27125452523764</v>
+        <v>34.27125452523759</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.300268859256792</v>
+        <v>4.300268859256825</v>
       </c>
       <c r="J17">
-        <v>50.13338129458873</v>
+        <v>50.13338129458869</v>
       </c>
       <c r="K17">
-        <v>39.12805590950939</v>
+        <v>39.12805590950936</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.78892492508816</v>
+        <v>17.78892492508823</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.632177615216615</v>
+        <v>3.632177615216598</v>
       </c>
       <c r="E18">
-        <v>5.401021154402146</v>
+        <v>5.401021154402253</v>
       </c>
       <c r="F18">
-        <v>43.50458987854802</v>
+        <v>43.50458987854837</v>
       </c>
       <c r="G18">
-        <v>33.71361249426153</v>
+        <v>33.7136124942618</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.351805113552657</v>
+        <v>4.351805113552757</v>
       </c>
       <c r="J18">
-        <v>49.45308192923581</v>
+        <v>49.4530819292358</v>
       </c>
       <c r="K18">
-        <v>38.58694930722854</v>
+        <v>38.58694930722849</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.70470199493347</v>
+        <v>17.70470199493342</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.609595569955276</v>
+        <v>3.609595569955343</v>
       </c>
       <c r="E19">
-        <v>5.406805148814415</v>
+        <v>5.40680514881444</v>
       </c>
       <c r="F19">
-        <v>43.26761733039113</v>
+        <v>43.26761733039108</v>
       </c>
       <c r="G19">
-        <v>33.52489621330501</v>
+        <v>33.52489621330497</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>4.369245449366012</v>
       </c>
       <c r="J19">
-        <v>49.2216586596037</v>
+        <v>49.22165865960365</v>
       </c>
       <c r="K19">
-        <v>38.40295357463836</v>
+        <v>38.40295357463837</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.08198034495082</v>
+        <v>18.0819803449508</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.711479222742051</v>
+        <v>3.711479222741967</v>
       </c>
       <c r="E20">
-        <v>5.38101709792005</v>
+        <v>5.381017097919955</v>
       </c>
       <c r="F20">
-        <v>44.33469206876645</v>
+        <v>44.33469206876646</v>
       </c>
       <c r="G20">
         <v>34.37451593041919</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.290725458826529</v>
+        <v>4.290725458826496</v>
       </c>
       <c r="J20">
-        <v>50.25878204359331</v>
+        <v>50.25878204359328</v>
       </c>
       <c r="K20">
-        <v>39.22783637692126</v>
+        <v>39.22783637692131</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,28 +1140,28 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.059748450300137</v>
+        <v>4.059748450300302</v>
       </c>
       <c r="E21">
-        <v>5.298730902685974</v>
+        <v>5.298730902685914</v>
       </c>
       <c r="F21">
-        <v>47.94001146712824</v>
+        <v>47.94001146712809</v>
       </c>
       <c r="G21">
-        <v>37.24265233818032</v>
+        <v>37.24265233818023</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.025680043283132</v>
+        <v>4.025680043283033</v>
       </c>
       <c r="J21">
-        <v>53.67319944645682</v>
+        <v>53.6731994464568</v>
       </c>
       <c r="K21">
-        <v>41.94934418202953</v>
+        <v>41.94934418202951</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.11092266231851</v>
+        <v>20.11092266231852</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.29371005219177</v>
+        <v>4.293710052191833</v>
       </c>
       <c r="E22">
-        <v>5.248418709903889</v>
+        <v>5.24841870990411</v>
       </c>
       <c r="F22">
         <v>50.32323794232681</v>
       </c>
       <c r="G22">
-        <v>39.13714514297821</v>
+        <v>39.13714514297823</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.850740880858052</v>
+        <v>3.850740880858219</v>
       </c>
       <c r="J22">
-        <v>55.85956685830438</v>
+        <v>55.85956685830439</v>
       </c>
       <c r="K22">
-        <v>43.69706638981252</v>
+        <v>43.69706638981249</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.69082291287822</v>
+        <v>19.69082291287821</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.168121183168812</v>
+        <v>4.168121183168865</v>
       </c>
       <c r="E23">
-        <v>5.274937550176875</v>
+        <v>5.274937550176957</v>
       </c>
       <c r="F23">
-        <v>49.04791660018176</v>
+        <v>49.04791660018152</v>
       </c>
       <c r="G23">
-        <v>38.12346030336485</v>
+        <v>38.12346030336467</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.944323047469483</v>
+        <v>3.944323047469519</v>
       </c>
       <c r="J23">
-        <v>54.6962801950761</v>
+        <v>54.69628019507616</v>
       </c>
       <c r="K23">
-        <v>42.76665230939591</v>
+        <v>42.76665230939589</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.06137523126367</v>
+        <v>18.0613752312637</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.705866154108854</v>
+        <v>3.70586615410862</v>
       </c>
       <c r="E24">
-        <v>5.382417326347177</v>
+        <v>5.382417326347007</v>
       </c>
       <c r="F24">
-        <v>44.27604405694171</v>
+        <v>44.27604405694183</v>
       </c>
       <c r="G24">
-        <v>34.32782985153852</v>
+        <v>34.32782985153857</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.295040182507821</v>
+        <v>4.295040182507787</v>
       </c>
       <c r="J24">
         <v>50.20210845313223</v>
       </c>
       <c r="K24">
-        <v>39.18274015960188</v>
+        <v>39.18274015960196</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20784001388143</v>
+        <v>16.20784001388146</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.223075419001245</v>
+        <v>3.223075419001053</v>
       </c>
       <c r="E25">
-        <v>5.511965908103137</v>
+        <v>5.511965908103124</v>
       </c>
       <c r="F25">
-        <v>39.17417865476091</v>
+        <v>39.17417865476106</v>
       </c>
       <c r="G25">
-        <v>30.26097840067801</v>
+        <v>30.26097840067811</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.670832379945819</v>
+        <v>4.670832379945853</v>
       </c>
       <c r="J25">
-        <v>45.11746427629907</v>
+        <v>45.11746427629905</v>
       </c>
       <c r="K25">
-        <v>35.14602746586699</v>
+        <v>35.14602746586696</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.74935831175181</v>
+        <v>14.74904733272889</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.871543631210541</v>
+        <v>2.865565315596213</v>
       </c>
       <c r="E2">
-        <v>5.618128971393306</v>
+        <v>5.614983206293585</v>
       </c>
       <c r="F2">
-        <v>35.49822303794424</v>
+        <v>35.46175184915138</v>
       </c>
       <c r="G2">
-        <v>27.29669265648677</v>
+        <v>27.27894202493761</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.33138355985309</v>
       </c>
       <c r="I2">
-        <v>4.949712727590184</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>41.13198837661147</v>
+        <v>4.948528457121356</v>
       </c>
       <c r="K2">
-        <v>31.99349521478461</v>
+        <v>41.12849273413777</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>31.99197312121209</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69798833510344</v>
+        <v>13.69779170171661</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.632164874635805</v>
+        <v>2.626839084736268</v>
       </c>
       <c r="E3">
-        <v>5.696508000600756</v>
+        <v>5.693973871957671</v>
       </c>
       <c r="F3">
-        <v>33.19611166634071</v>
+        <v>33.16253463788668</v>
       </c>
       <c r="G3">
-        <v>25.60165262888058</v>
+        <v>25.2576255260992</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25.63436289262261</v>
       </c>
       <c r="I3">
-        <v>5.141797545775214</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>38.26555182277696</v>
+        <v>5.140797204541705</v>
       </c>
       <c r="K3">
-        <v>29.73159109103235</v>
+        <v>38.26274858284227</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>29.73052696274861</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.02014956203204</v>
+        <v>13.02001620198175</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.483673286067037</v>
+        <v>2.478760973973044</v>
       </c>
       <c r="E4">
-        <v>5.747741051635245</v>
+        <v>5.745590168694465</v>
       </c>
       <c r="F4">
-        <v>31.79086121680677</v>
+        <v>31.75907985496132</v>
       </c>
       <c r="G4">
-        <v>24.57578389704511</v>
+        <v>24.04342315686357</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.60731571477859</v>
       </c>
       <c r="I4">
-        <v>5.261736151827631</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>36.41994649535227</v>
+        <v>5.260852581056668</v>
       </c>
       <c r="K4">
-        <v>28.27739370527023</v>
+        <v>36.41755167733137</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>28.27659180813804</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.73563994636722</v>
+        <v>12.73553087376631</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.422660788973849</v>
+        <v>2.417920656472851</v>
       </c>
       <c r="E5">
-        <v>5.769393277448083</v>
+        <v>5.76740065479143</v>
       </c>
       <c r="F5">
-        <v>31.22037584665634</v>
+        <v>31.18933263745105</v>
       </c>
       <c r="G5">
-        <v>24.16153451759748</v>
+        <v>23.54699001622587</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.19259708638148</v>
       </c>
       <c r="I5">
-        <v>5.311177064982988</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>35.64580380769291</v>
+        <v>5.310342054615576</v>
       </c>
       <c r="K5">
-        <v>27.66789735813038</v>
+        <v>35.64357251119502</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>27.66719856986836</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68789245264164</v>
+        <v>12.68778732885587</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.412496224577324</v>
+        <v>2.407784917480003</v>
       </c>
       <c r="E6">
-        <v>5.773035208026886</v>
+        <v>5.771068994223789</v>
       </c>
       <c r="F6">
-        <v>31.12578491662946</v>
+        <v>31.09486470424092</v>
       </c>
       <c r="G6">
-        <v>24.09298285972174</v>
+        <v>23.46446171177302</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.12396821705698</v>
       </c>
       <c r="I6">
-        <v>5.319422525478501</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>35.51591259452713</v>
+        <v>5.318595637820002</v>
       </c>
       <c r="K6">
-        <v>27.56565781472132</v>
+        <v>35.51370830950105</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>27.56497594803923</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01634631682636</v>
+        <v>13.01621329009469</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.482852626610582</v>
+        <v>2.477942621099257</v>
       </c>
       <c r="E7">
-        <v>5.748029933898113</v>
+        <v>5.745881176689465</v>
       </c>
       <c r="F7">
-        <v>31.7831584002527</v>
+        <v>31.7513869655684</v>
       </c>
       <c r="G7">
-        <v>24.57018160970513</v>
+        <v>24.03673460956071</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.60170705254793</v>
       </c>
       <c r="I7">
-        <v>5.262400563544249</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>36.40959603271538</v>
+        <v>5.261517643709681</v>
       </c>
       <c r="K7">
-        <v>28.2692428192129</v>
+        <v>36.40720343020825</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>28.26844232659624</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.39344419736711</v>
+        <v>14.3931742489619</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.789241665581034</v>
+        <v>2.783485971146869</v>
       </c>
       <c r="E8">
-        <v>5.644504011590263</v>
+        <v>5.641567637763615</v>
       </c>
       <c r="F8">
-        <v>34.70272193953546</v>
+        <v>34.66724598862632</v>
       </c>
       <c r="G8">
-        <v>26.70913311298819</v>
+        <v>26.56650958958937</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>26.74313417532839</v>
       </c>
       <c r="I8">
-        <v>5.015568712700637</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>40.16107612740637</v>
+        <v>5.014447069814215</v>
       </c>
       <c r="K8">
-        <v>31.22686716058662</v>
+        <v>40.1578235251466</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>31.22550756867843</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.84610044660209</v>
+        <v>16.84549262463651</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.384536956233296</v>
+        <v>3.377200640669686</v>
       </c>
       <c r="E9">
-        <v>5.466604121967465</v>
+        <v>5.462176094998838</v>
       </c>
       <c r="F9">
-        <v>40.89227908320701</v>
+        <v>40.84874803310351</v>
       </c>
       <c r="G9">
-        <v>31.63195400466354</v>
+        <v>31.67230334486952</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.43466858377185</v>
       </c>
       <c r="I9">
-        <v>4.544163877898869</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>46.86556051879117</v>
+        <v>4.54260433514067</v>
       </c>
       <c r="K9">
-        <v>36.53186166688253</v>
+        <v>46.86041937697794</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>36.52919945022312</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.51057796171208</v>
+        <v>18.5096528434751</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.82953794232178</v>
+        <v>3.82104651633743</v>
       </c>
       <c r="E10">
-        <v>5.35211537847803</v>
+        <v>5.34660877150083</v>
       </c>
       <c r="F10">
-        <v>45.56433567305118</v>
+        <v>45.51535739037365</v>
       </c>
       <c r="G10">
-        <v>35.35311279974519</v>
+        <v>35.39775984319255</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>35.03965805630387</v>
       </c>
       <c r="I10">
-        <v>4.200283387282227</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>51.43847365285716</v>
+        <v>4.198420948400881</v>
       </c>
       <c r="K10">
-        <v>40.16709018699855</v>
+        <v>51.43169875978452</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>40.16324479696289</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.24165625184143</v>
+        <v>19.24056301109693</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.03685459454321</v>
+        <v>4.027826385974506</v>
       </c>
       <c r="E11">
-        <v>5.303866024121033</v>
+        <v>5.297867708433357</v>
       </c>
       <c r="F11">
-        <v>47.70509797541847</v>
+        <v>47.65352140145483</v>
       </c>
       <c r="G11">
-        <v>37.0558636222859</v>
+        <v>37.10240769521897</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>36.69710075269904</v>
       </c>
       <c r="I11">
-        <v>4.042936744100071</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>53.45474304914596</v>
+        <v>4.040941018421115</v>
       </c>
       <c r="K11">
-        <v>41.77494023851101</v>
+        <v>53.44713263753995</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>41.77047537402387</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.51512549625012</v>
+        <v>19.51396412325491</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.116410811765773</v>
+        <v>4.107176251132475</v>
       </c>
       <c r="E12">
-        <v>5.286184874631236</v>
+        <v>5.279999636202593</v>
       </c>
       <c r="F12">
-        <v>48.52012558636333</v>
+        <v>48.46753925781497</v>
       </c>
       <c r="G12">
-        <v>37.70388064223724</v>
+        <v>37.75113197708885</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>37.32896020384164</v>
       </c>
       <c r="I12">
-        <v>3.983074105065253</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>54.21037105555603</v>
+        <v>3.981028629471441</v>
       </c>
       <c r="K12">
-        <v>42.37836341836761</v>
+        <v>54.2024264218576</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>42.37364849239728</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.45637220109565</v>
+        <v>19.45522572078842</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.099223809229163</v>
+        <v>4.090033855508493</v>
       </c>
       <c r="E13">
-        <v>5.289965832279385</v>
+        <v>5.283820894425547</v>
       </c>
       <c r="F13">
-        <v>48.34435952779554</v>
+        <v>48.29199198384411</v>
       </c>
       <c r="G13">
-        <v>37.56414139497414</v>
+        <v>37.61124095760117</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>37.19265757778493</v>
       </c>
       <c r="I13">
-        <v>3.995981663098612</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>54.0479599522488</v>
+        <v>3.993946868193109</v>
       </c>
       <c r="K13">
-        <v>42.24862596994823</v>
+        <v>54.0400881807094</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>42.24396566167616</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.2642199097737</v>
+        <v>19.26312116053791</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.043376397508744</v>
+        <v>4.034331284007358</v>
       </c>
       <c r="E14">
-        <v>5.302399294835655</v>
+        <v>5.296385619375615</v>
       </c>
       <c r="F14">
-        <v>47.77204869845831</v>
+        <v>47.72038962821698</v>
       </c>
       <c r="G14">
-        <v>37.10909976929677</v>
+        <v>37.15570227123371</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>36.74898802719186</v>
       </c>
       <c r="I14">
-        <v>4.038018346899634</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>53.51705860621124</v>
+        <v>4.036018513183504</v>
       </c>
       <c r="K14">
-        <v>41.82468561194374</v>
+        <v>53.50942108660457</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>41.82020051118294</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.14609420897778</v>
+        <v>19.14502407758265</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.009316719727337</v>
+        <v>4.000359872523009</v>
       </c>
       <c r="E15">
-        <v>5.310093337029376</v>
+        <v>5.304159949101439</v>
       </c>
       <c r="F15">
-        <v>47.42213500597192</v>
+        <v>47.37090623043867</v>
       </c>
       <c r="G15">
-        <v>36.83085478109863</v>
+        <v>36.87715127325154</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>36.47783658082036</v>
       </c>
       <c r="I15">
-        <v>4.063725840245265</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>53.1908824983101</v>
+        <v>4.061747518408898</v>
       </c>
       <c r="K15">
-        <v>41.56434076942662</v>
+        <v>53.18338598301335</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>41.55996083874074</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.4623057908886</v>
+        <v>18.46139109913154</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.816115470414858</v>
+        <v>3.807658781846237</v>
       </c>
       <c r="E16">
-        <v>5.355348731413585</v>
+        <v>5.349874192841191</v>
       </c>
       <c r="F16">
-        <v>45.42491218097386</v>
+        <v>45.37610061233315</v>
       </c>
       <c r="G16">
-        <v>35.24217669687082</v>
+        <v>35.28669838398217</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>34.93182723147459</v>
       </c>
       <c r="I16">
-        <v>4.210536001378375</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>51.30552414076317</v>
+        <v>4.208682369198231</v>
       </c>
       <c r="K16">
-        <v>40.06118440436789</v>
+        <v>51.29880163510164</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>40.05737756554765</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03638596062238</v>
+        <v>18.03555988785846</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.699066405915615</v>
+        <v>3.690912741771901</v>
       </c>
       <c r="E17">
-        <v>5.384116773571971</v>
+        <v>5.378923102535451</v>
       </c>
       <c r="F17">
-        <v>44.20497489472888</v>
+        <v>44.15761011728802</v>
       </c>
       <c r="G17">
-        <v>34.27125452523759</v>
+        <v>34.31467089576294</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>33.9889488955085</v>
       </c>
       <c r="I17">
-        <v>4.300268859256825</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>50.13338129458869</v>
+        <v>4.298492914386532</v>
       </c>
       <c r="K17">
-        <v>39.12805590950936</v>
+        <v>50.12710714925186</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>39.12457748623496</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.78892492508823</v>
+        <v>17.78814766375412</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.632177615216598</v>
+        <v>3.624197285292917</v>
       </c>
       <c r="E18">
-        <v>5.401021154402253</v>
+        <v>5.3959889744612</v>
       </c>
       <c r="F18">
-        <v>43.50458987854837</v>
+        <v>43.45804657297339</v>
       </c>
       <c r="G18">
-        <v>33.7136124942618</v>
+        <v>33.7563878629748</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>33.44815088201126</v>
       </c>
       <c r="I18">
-        <v>4.351805113552757</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>49.4530819292358</v>
+        <v>4.350074269649852</v>
       </c>
       <c r="K18">
-        <v>38.58694930722849</v>
+        <v>49.44705731905428</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>38.5836524169054</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.70470199493342</v>
+        <v>17.70394091612618</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.609595569955343</v>
+        <v>3.601673801268722</v>
       </c>
       <c r="E19">
-        <v>5.40680514881444</v>
+        <v>5.40182765178723</v>
       </c>
       <c r="F19">
-        <v>43.26761733039108</v>
+        <v>43.22135054425434</v>
       </c>
       <c r="G19">
-        <v>33.52489621330497</v>
+        <v>33.56745371641355</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>33.26526302359053</v>
       </c>
       <c r="I19">
-        <v>4.369245449366012</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>49.22165865960365</v>
+        <v>4.367529945901492</v>
       </c>
       <c r="K19">
-        <v>38.40295357463837</v>
+        <v>49.2157172207256</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>38.39971698096643</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.0819803449508</v>
+        <v>18.08114506863337</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.711479222741967</v>
+        <v>3.703293409419031</v>
       </c>
       <c r="E20">
-        <v>5.381017097919955</v>
+        <v>5.37579353745207</v>
       </c>
       <c r="F20">
-        <v>44.33469206876646</v>
+        <v>44.28717443708566</v>
       </c>
       <c r="G20">
-        <v>34.37451593041919</v>
+        <v>34.41805052430161</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>34.08915173282817</v>
       </c>
       <c r="I20">
-        <v>4.290725458826496</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>50.25878204359328</v>
+        <v>4.288941200409047</v>
       </c>
       <c r="K20">
-        <v>39.22783637692131</v>
+        <v>50.25246106232471</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>39.22432377908707</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.32074786707309</v>
+        <v>19.31963522940853</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.059748450300302</v>
+        <v>4.050660891287396</v>
       </c>
       <c r="E21">
-        <v>5.298730902685914</v>
+        <v>5.292678697446108</v>
       </c>
       <c r="F21">
-        <v>47.94001146712809</v>
+        <v>47.88814508434969</v>
       </c>
       <c r="G21">
-        <v>37.24265233818023</v>
+        <v>37.28940116753149</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>36.87917384453214</v>
       </c>
       <c r="I21">
-        <v>4.025680043283033</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>53.6731994464568</v>
+        <v>4.023669920172322</v>
       </c>
       <c r="K21">
-        <v>41.94934418202951</v>
+        <v>53.66549364886298</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>41.94480807515522</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.11092266231852</v>
+        <v>20.10960194358805</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.293710052191833</v>
+        <v>4.284014130843728</v>
       </c>
       <c r="E22">
-        <v>5.24841870990411</v>
+        <v>5.24182029576335</v>
       </c>
       <c r="F22">
-        <v>50.32323794232681</v>
+        <v>50.26837255256448</v>
       </c>
       <c r="G22">
-        <v>39.13714514297823</v>
+        <v>39.18592776718245</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>38.72840713760245</v>
       </c>
       <c r="I22">
-        <v>3.850740880858219</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>55.85956685830439</v>
+        <v>3.848587427787375</v>
       </c>
       <c r="K22">
-        <v>43.69706638981249</v>
+        <v>55.85084878289756</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>43.69176836525634</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.69082291287821</v>
+        <v>19.68961614859341</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.168121183168865</v>
+        <v>4.158752306188147</v>
       </c>
       <c r="E23">
-        <v>5.274937550176957</v>
+        <v>5.268631327550378</v>
       </c>
       <c r="F23">
-        <v>49.04791660018152</v>
+        <v>48.99466980823634</v>
       </c>
       <c r="G23">
-        <v>38.12346030336467</v>
+        <v>38.17116479758504</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>37.73837401676315</v>
       </c>
       <c r="I23">
-        <v>3.944323047469519</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>54.69628019507616</v>
+        <v>3.942245662314876</v>
       </c>
       <c r="K23">
-        <v>42.76665230939589</v>
+        <v>54.68811412136571</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>42.76177105003942</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.0613752312637</v>
+        <v>18.06054412245434</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.70586615410862</v>
+        <v>3.697694878062627</v>
       </c>
       <c r="E24">
-        <v>5.382417326347007</v>
+        <v>5.377207278799225</v>
       </c>
       <c r="F24">
-        <v>44.27604405694183</v>
+        <v>44.22859556216504</v>
       </c>
       <c r="G24">
-        <v>34.32782985153857</v>
+        <v>34.3713110137069</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>34.04384617949903</v>
       </c>
       <c r="I24">
-        <v>4.295040182507787</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>50.20210845313223</v>
+        <v>4.29325968128741</v>
       </c>
       <c r="K24">
-        <v>39.18274015960196</v>
+        <v>50.19580867171014</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>39.17924303448529</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20784001388146</v>
+        <v>16.20733335776365</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.223075419001053</v>
+        <v>3.216162114380038</v>
       </c>
       <c r="E25">
-        <v>5.511965908103124</v>
+        <v>5.507937071465227</v>
       </c>
       <c r="F25">
-        <v>39.17417865476106</v>
+        <v>39.13259098036857</v>
       </c>
       <c r="G25">
-        <v>30.26097840067811</v>
+        <v>30.29970761459333</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.11376928859663</v>
       </c>
       <c r="I25">
-        <v>4.670832379945853</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>45.11746427629905</v>
+        <v>4.669388066836095</v>
       </c>
       <c r="K25">
-        <v>35.14602746586696</v>
+        <v>45.11286665296804</v>
       </c>
       <c r="L25">
+        <v>35.14374861939375</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.74904733272889</v>
+        <v>22.46523510131229</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.865565315596213</v>
+        <v>14.21310211139687</v>
       </c>
       <c r="E2">
-        <v>5.614983206293585</v>
+        <v>20.55169765077916</v>
       </c>
       <c r="F2">
-        <v>35.46175184915138</v>
+        <v>53.99595251471949</v>
       </c>
       <c r="G2">
-        <v>27.27894202493761</v>
+        <v>2.064575281938691</v>
       </c>
       <c r="H2">
-        <v>27.33138355985309</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.948528457121356</v>
+        <v>10.53937387893736</v>
       </c>
       <c r="K2">
-        <v>41.12849273413777</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>31.99197312121209</v>
+        <v>15.39632008561492</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>19.3216175862303</v>
+      </c>
+      <c r="N2">
+        <v>14.19665437938373</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69779170171661</v>
+        <v>21.22396889410237</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.626839084736268</v>
+        <v>13.09358688503188</v>
       </c>
       <c r="E3">
-        <v>5.693973871957671</v>
+        <v>19.02784400483668</v>
       </c>
       <c r="F3">
-        <v>33.16253463788668</v>
+        <v>51.48819458924666</v>
       </c>
       <c r="G3">
-        <v>25.2576255260992</v>
+        <v>2.086829290582649</v>
       </c>
       <c r="H3">
-        <v>25.63436289262261</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.140797204541705</v>
+        <v>9.94324410140784</v>
       </c>
       <c r="K3">
-        <v>38.26274858284227</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.73052696274861</v>
+        <v>14.50231133070442</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>18.36876246030296</v>
+      </c>
+      <c r="N3">
+        <v>14.56540857551402</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.02001620198175</v>
+        <v>20.45254612486387</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.478760973973044</v>
+        <v>12.38416732476581</v>
       </c>
       <c r="E4">
-        <v>5.745590168694465</v>
+        <v>18.05995156221693</v>
       </c>
       <c r="F4">
-        <v>31.75907985496132</v>
+        <v>49.98661468600267</v>
       </c>
       <c r="G4">
-        <v>24.04342315686357</v>
+        <v>2.100564046441761</v>
       </c>
       <c r="H4">
-        <v>24.60731571477859</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.260852581056668</v>
+        <v>9.568661563647565</v>
       </c>
       <c r="K4">
-        <v>36.41755167733137</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.27659180813804</v>
+        <v>13.94803307799938</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>17.78333488820205</v>
+      </c>
+      <c r="N4">
+        <v>14.79229199011486</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.73553087376631</v>
+        <v>20.13592786488907</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.417920656472851</v>
+        <v>12.08907634846184</v>
       </c>
       <c r="E5">
-        <v>5.76740065479143</v>
+        <v>17.6568499261266</v>
       </c>
       <c r="F5">
-        <v>31.18933263745105</v>
+        <v>49.3838637292406</v>
       </c>
       <c r="G5">
-        <v>23.54699001622587</v>
+        <v>2.10619288770211</v>
       </c>
       <c r="H5">
-        <v>24.19259708638148</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.310342054615576</v>
+        <v>9.413720385906107</v>
       </c>
       <c r="K5">
-        <v>35.64357251119502</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>27.66719856986836</v>
+        <v>13.72078548247239</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17.54470255634193</v>
+      </c>
+      <c r="N5">
+        <v>14.88503422989058</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68778732885587</v>
+        <v>20.08322170147835</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.407784917480003</v>
+        <v>12.03970244601309</v>
       </c>
       <c r="E6">
-        <v>5.771068994223789</v>
+        <v>17.58937607935541</v>
       </c>
       <c r="F6">
-        <v>31.09486470424092</v>
+        <v>49.28432141202718</v>
       </c>
       <c r="G6">
-        <v>23.46446171177302</v>
+        <v>2.107129846459392</v>
       </c>
       <c r="H6">
-        <v>24.12396821705698</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.318595637820002</v>
+        <v>9.387850575240233</v>
       </c>
       <c r="K6">
-        <v>35.51370830950105</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>27.56497594803923</v>
+        <v>13.68296908052172</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17.50507628059982</v>
+      </c>
+      <c r="N6">
+        <v>14.90045576881119</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01621329009469</v>
+        <v>20.44828505684631</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.477942621099257</v>
+        <v>12.38021246001843</v>
       </c>
       <c r="E7">
-        <v>5.745881176689465</v>
+        <v>18.05455101830536</v>
       </c>
       <c r="F7">
-        <v>31.7513869655684</v>
+        <v>49.97844913777051</v>
       </c>
       <c r="G7">
-        <v>24.03673460956071</v>
+        <v>2.100639813056929</v>
       </c>
       <c r="H7">
-        <v>24.60170705254793</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.261517643709681</v>
+        <v>9.566581423333059</v>
       </c>
       <c r="K7">
-        <v>36.40720343020825</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.26844232659624</v>
+        <v>13.94497387463664</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17.7801167776385</v>
+      </c>
+      <c r="N7">
+        <v>14.79354138171966</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.3931742489619</v>
+        <v>22.03918200020139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.783485971146869</v>
+        <v>13.83136866401358</v>
       </c>
       <c r="E8">
-        <v>5.641567637763615</v>
+        <v>20.03259116400491</v>
       </c>
       <c r="F8">
-        <v>34.66724598862632</v>
+        <v>53.12300241213925</v>
       </c>
       <c r="G8">
-        <v>26.56650958958937</v>
+        <v>2.07224292774972</v>
       </c>
       <c r="H8">
-        <v>26.74313417532839</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.014447069814215</v>
+        <v>10.33550135342014</v>
       </c>
       <c r="K8">
-        <v>40.1578235251466</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>31.22550756867843</v>
+        <v>15.08912976154114</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.99313817391391</v>
+      </c>
+      <c r="N8">
+        <v>14.32381203474841</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.84549262463651</v>
+        <v>25.08873596806676</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.377200640669686</v>
+        <v>16.52738164030815</v>
       </c>
       <c r="E9">
-        <v>5.462176094998838</v>
+        <v>23.6873544311142</v>
       </c>
       <c r="F9">
-        <v>40.84874803310351</v>
+        <v>59.62885639028686</v>
       </c>
       <c r="G9">
-        <v>31.67230334486952</v>
+        <v>2.016346606124928</v>
       </c>
       <c r="H9">
-        <v>31.43466858377185</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.54260433514067</v>
+        <v>11.78506577044077</v>
       </c>
       <c r="K9">
-        <v>46.86041937697794</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>36.52919945022312</v>
+        <v>17.58872839497356</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.42557892234206</v>
+      </c>
+      <c r="N9">
+        <v>13.39743646183678</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.5096528434751</v>
+        <v>27.39357405791984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.82104651633743</v>
+        <v>18.46168201861011</v>
       </c>
       <c r="E10">
-        <v>5.34660877150083</v>
+        <v>26.29261241611061</v>
       </c>
       <c r="F10">
-        <v>45.51535739037365</v>
+        <v>64.70017734312032</v>
       </c>
       <c r="G10">
-        <v>35.39775984319255</v>
+        <v>1.973777342064838</v>
       </c>
       <c r="H10">
-        <v>35.03965805630387</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.198420948400881</v>
+        <v>12.83398511513963</v>
       </c>
       <c r="K10">
-        <v>51.43169875978452</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>40.16324479696289</v>
+        <v>19.53552879344976</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.74873786682403</v>
+      </c>
+      <c r="N10">
+        <v>12.69837924465376</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.24056301109693</v>
+        <v>28.52411970540816</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.027826385974506</v>
+        <v>19.34568082170639</v>
       </c>
       <c r="E11">
-        <v>5.297867708433357</v>
+        <v>27.47844274614897</v>
       </c>
       <c r="F11">
-        <v>47.65352140145483</v>
+        <v>67.10301566772503</v>
       </c>
       <c r="G11">
-        <v>37.10240769521897</v>
+        <v>1.953652597571296</v>
       </c>
       <c r="H11">
-        <v>36.69710075269904</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.040941018421115</v>
+        <v>13.3144133140806</v>
       </c>
       <c r="K11">
-        <v>53.44713263753995</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>41.77047537402387</v>
+        <v>20.41548568736212</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.79439611426032</v>
+      </c>
+      <c r="N11">
+        <v>12.37184376540022</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.51396412325491</v>
+        <v>28.95212907465321</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.107176251132475</v>
+        <v>19.68267341829598</v>
       </c>
       <c r="E12">
-        <v>5.279999636202593</v>
+        <v>27.92970152144333</v>
       </c>
       <c r="F12">
-        <v>48.46753925781497</v>
+        <v>68.030868125597</v>
       </c>
       <c r="G12">
-        <v>37.75113197708885</v>
+        <v>1.945871883873393</v>
       </c>
       <c r="H12">
-        <v>37.32896020384164</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.981028629471441</v>
+        <v>13.49763442255894</v>
       </c>
       <c r="K12">
-        <v>54.2024264218576</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>42.37364849239728</v>
+        <v>20.74921939965414</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25.19016994978546</v>
+      </c>
+      <c r="N12">
+        <v>12.24646735000342</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.45522572078842</v>
+        <v>28.85992884989371</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.090033855508493</v>
+        <v>19.6099640190048</v>
       </c>
       <c r="E13">
-        <v>5.283820894425547</v>
+        <v>27.83237527002177</v>
       </c>
       <c r="F13">
-        <v>48.29199198384411</v>
+        <v>67.83015627391936</v>
       </c>
       <c r="G13">
-        <v>37.61124095760117</v>
+        <v>1.94755569937868</v>
       </c>
       <c r="H13">
-        <v>37.19265757778493</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.993946868193109</v>
+        <v>13.45810064310304</v>
       </c>
       <c r="K13">
-        <v>54.0400881807094</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>42.24396566167616</v>
+        <v>20.67729521880865</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25.1049141707311</v>
+      </c>
+      <c r="N13">
+        <v>12.27355550446397</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.26312116053791</v>
+        <v>28.55932540708189</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.034331284007358</v>
+        <v>19.37334904744029</v>
       </c>
       <c r="E14">
-        <v>5.296385619375615</v>
+        <v>27.51550916935401</v>
       </c>
       <c r="F14">
-        <v>47.72038962821698</v>
+        <v>67.17896128544244</v>
       </c>
       <c r="G14">
-        <v>37.15570227123371</v>
+        <v>1.953016027843593</v>
       </c>
       <c r="H14">
-        <v>36.74898802719186</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.036018513183504</v>
+        <v>13.32945533839893</v>
       </c>
       <c r="K14">
-        <v>53.50942108660457</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>41.82020051118294</v>
+        <v>20.44292273539315</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.8269508471476</v>
+      </c>
+      <c r="N14">
+        <v>12.36156686980387</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.14502407758265</v>
+        <v>28.37522929824417</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.000359872523009</v>
+        <v>19.22876577171338</v>
       </c>
       <c r="E15">
-        <v>5.304159949101439</v>
+        <v>27.32178189389982</v>
       </c>
       <c r="F15">
-        <v>47.37090623043867</v>
+        <v>66.78257391041234</v>
       </c>
       <c r="G15">
-        <v>36.87715127325154</v>
+        <v>1.95633802929903</v>
       </c>
       <c r="H15">
-        <v>36.47783658082036</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.061747518408898</v>
+        <v>13.25085418581382</v>
       </c>
       <c r="K15">
-        <v>53.18338598301335</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>41.55996083874074</v>
+        <v>20.29947627846243</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.65671453536561</v>
+      </c>
+      <c r="N15">
+        <v>12.41523473118928</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.46139109913154</v>
+        <v>27.3195962716081</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.807658781846237</v>
+        <v>18.40412253536396</v>
       </c>
       <c r="E16">
-        <v>5.349874192841191</v>
+        <v>26.21529506474436</v>
       </c>
       <c r="F16">
-        <v>45.37610061233315</v>
+        <v>64.54539685237518</v>
       </c>
       <c r="G16">
-        <v>35.28669838398217</v>
+        <v>1.975073274901171</v>
       </c>
       <c r="H16">
-        <v>34.93182723147459</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.208682369198231</v>
+        <v>12.80271791945609</v>
       </c>
       <c r="K16">
-        <v>51.29880163510164</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>40.05737756554765</v>
+        <v>19.47801195428846</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.68028794767138</v>
+      </c>
+      <c r="N16">
+        <v>12.71950779176993</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03555988785846</v>
+        <v>26.67031616511905</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.690912741771901</v>
+        <v>17.90029870654195</v>
       </c>
       <c r="E17">
-        <v>5.378923102535451</v>
+        <v>25.53798241819861</v>
       </c>
       <c r="F17">
-        <v>44.15761011728802</v>
+        <v>63.20002094913959</v>
       </c>
       <c r="G17">
-        <v>34.31467089576294</v>
+        <v>1.986340769100138</v>
       </c>
       <c r="H17">
-        <v>33.9889488955085</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.298492914386532</v>
+        <v>12.52914114592054</v>
       </c>
       <c r="K17">
-        <v>50.12710714925186</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>39.12457748623496</v>
+        <v>18.97344409287974</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23.07929856259971</v>
+      </c>
+      <c r="N17">
+        <v>12.90366893719627</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.78814766375412</v>
+        <v>26.32891028720238</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.624197285292917</v>
+        <v>17.61077277492949</v>
       </c>
       <c r="E18">
-        <v>5.3959889744612</v>
+        <v>25.14831695279383</v>
       </c>
       <c r="F18">
-        <v>43.45804657297339</v>
+        <v>62.43489702907205</v>
       </c>
       <c r="G18">
-        <v>33.7563878629748</v>
+        <v>1.992753793547125</v>
       </c>
       <c r="H18">
-        <v>33.44815088201126</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.350074269649852</v>
+        <v>12.37203224993864</v>
       </c>
       <c r="K18">
-        <v>49.44705731905428</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>38.5836524169054</v>
+        <v>18.68259921340846</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.73247010629153</v>
+      </c>
+      <c r="N18">
+        <v>13.00882667454355</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.70394091612618</v>
+        <v>26.21662216735123</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.601673801268722</v>
+        <v>17.51274653996773</v>
       </c>
       <c r="E19">
-        <v>5.40182765178723</v>
+        <v>25.0163128561638</v>
       </c>
       <c r="F19">
-        <v>43.22135054425434</v>
+        <v>62.17723054743583</v>
       </c>
       <c r="G19">
-        <v>33.56745371641355</v>
+        <v>1.994914798971008</v>
       </c>
       <c r="H19">
-        <v>33.26526302359053</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.367529945901492</v>
+        <v>12.31885923240202</v>
       </c>
       <c r="K19">
-        <v>49.2157172207256</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>38.39971698096643</v>
+        <v>18.58398175074627</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.61480528250269</v>
+      </c>
+      <c r="N19">
+        <v>13.04431271834793</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.08114506863337</v>
+        <v>26.73952905817232</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.703293409419031</v>
+        <v>17.95389431356508</v>
       </c>
       <c r="E20">
-        <v>5.37579353745207</v>
+        <v>25.61007992747601</v>
       </c>
       <c r="F20">
-        <v>44.28717443708566</v>
+        <v>63.34231266977825</v>
       </c>
       <c r="G20">
-        <v>34.41805052430161</v>
+        <v>1.98514865365849</v>
       </c>
       <c r="H20">
-        <v>34.08915173282817</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.288941200409047</v>
+        <v>12.5582333899185</v>
       </c>
       <c r="K20">
-        <v>50.25246106232471</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>39.22432377908707</v>
+        <v>19.02721316760751</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>23.14338561543125</v>
+      </c>
+      <c r="N20">
+        <v>12.88414723851005</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.31963522940853</v>
+        <v>28.64761026082479</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.050660891287396</v>
+        <v>19.44277185046409</v>
       </c>
       <c r="E21">
-        <v>5.292678697446108</v>
+        <v>27.60850010193453</v>
       </c>
       <c r="F21">
-        <v>47.88814508434969</v>
+        <v>67.36970465466968</v>
       </c>
       <c r="G21">
-        <v>37.28940116753149</v>
+        <v>1.951417023293257</v>
       </c>
       <c r="H21">
-        <v>36.87917384453214</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.023669920172322</v>
+        <v>13.36719845611037</v>
       </c>
       <c r="K21">
-        <v>53.66549364886298</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>41.94480807515522</v>
+        <v>20.51173696517883</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.90858716757641</v>
+      </c>
+      <c r="N21">
+        <v>12.33576724384909</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.10960194358805</v>
+        <v>29.89501090940492</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.284014130843728</v>
+        <v>20.43011927489755</v>
       </c>
       <c r="E22">
-        <v>5.24182029576335</v>
+        <v>28.92902142623647</v>
       </c>
       <c r="F22">
-        <v>50.26837255256448</v>
+        <v>70.15418605819896</v>
       </c>
       <c r="G22">
-        <v>39.18592776718245</v>
+        <v>1.928402331987027</v>
       </c>
       <c r="H22">
-        <v>38.72840713760245</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.848587427787375</v>
+        <v>13.90406397007395</v>
       </c>
       <c r="K22">
-        <v>55.85084878289756</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>43.69176836525634</v>
+        <v>21.48591810998994</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26.06214290966443</v>
+      </c>
+      <c r="N22">
+        <v>11.96697739038852</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.68961614859341</v>
+        <v>29.22866437918121</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.158752306188147</v>
+        <v>19.90114378402605</v>
       </c>
       <c r="E23">
-        <v>5.268631327550378</v>
+        <v>28.22201526183188</v>
       </c>
       <c r="F23">
-        <v>48.99466980823634</v>
+        <v>68.63561118371085</v>
       </c>
       <c r="G23">
-        <v>38.17116479758504</v>
+        <v>1.940795846039974</v>
       </c>
       <c r="H23">
-        <v>37.73837401676315</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.942245662314876</v>
+        <v>13.61642645847448</v>
       </c>
       <c r="K23">
-        <v>54.68811412136571</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>42.76177105003942</v>
+        <v>20.96505568706642</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25.4458820669059</v>
+      </c>
+      <c r="N23">
+        <v>12.16496104385388</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.06054412245434</v>
+        <v>26.70824164997287</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.697694878062627</v>
+        <v>17.92966345450438</v>
       </c>
       <c r="E24">
-        <v>5.377207278799225</v>
+        <v>25.57748563186824</v>
       </c>
       <c r="F24">
-        <v>44.22859556216504</v>
+        <v>63.27795686345482</v>
       </c>
       <c r="G24">
-        <v>34.3713110137069</v>
+        <v>1.985687807329812</v>
       </c>
       <c r="H24">
-        <v>34.04384617949903</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.29325968128741</v>
+        <v>12.54508030219713</v>
       </c>
       <c r="K24">
-        <v>50.19580867171014</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>39.17924303448529</v>
+        <v>19.00290663648926</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>23.11441604419268</v>
+      </c>
+      <c r="N24">
+        <v>12.89297520222263</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20733335776365</v>
+        <v>24.2701962163979</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.216162114380038</v>
+        <v>15.81006756532841</v>
       </c>
       <c r="E25">
-        <v>5.507937071465227</v>
+        <v>22.71759110427448</v>
       </c>
       <c r="F25">
-        <v>39.13259098036857</v>
+        <v>57.8258239334719</v>
       </c>
       <c r="G25">
-        <v>30.29970761459333</v>
+        <v>2.03161319770236</v>
       </c>
       <c r="H25">
-        <v>30.11376928859663</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.669388066836095</v>
+        <v>11.3975184414319</v>
       </c>
       <c r="K25">
-        <v>45.11286665296804</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>35.14374861939375</v>
+        <v>16.85988277953317</v>
       </c>
       <c r="M25">
+        <v>20.72810877486656</v>
+      </c>
+      <c r="N25">
+        <v>13.65000371131608</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.46523510131229</v>
+        <v>7.264695548742181</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.21310211139687</v>
+        <v>4.397973809316023</v>
       </c>
       <c r="E2">
-        <v>20.55169765077916</v>
+        <v>44.3988985167973</v>
       </c>
       <c r="F2">
-        <v>53.99595251471949</v>
+        <v>14.63661725742157</v>
       </c>
       <c r="G2">
-        <v>2.064575281938691</v>
+        <v>19.58019810806916</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.890421047278071</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.53937387893736</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.39632008561492</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>19.3216175862303</v>
+        <v>71.57523133138834</v>
       </c>
       <c r="N2">
-        <v>14.19665437938373</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.53767141610382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.22396889410237</v>
+        <v>6.900193948400643</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.09358688503188</v>
+        <v>4.143969726102231</v>
       </c>
       <c r="E3">
-        <v>19.02784400483668</v>
+        <v>40.86447787920262</v>
       </c>
       <c r="F3">
-        <v>51.48819458924666</v>
+        <v>13.31870786577623</v>
       </c>
       <c r="G3">
-        <v>2.086829290582649</v>
+        <v>17.62516265819117</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.861168985371464</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.94324410140784</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.50231133070442</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>18.36876246030296</v>
+        <v>66.30256447561536</v>
       </c>
       <c r="N3">
-        <v>14.56540857551402</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.497560876020216</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.45254612486387</v>
+        <v>6.67132260493799</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.38416732476581</v>
+        <v>3.981219804902382</v>
       </c>
       <c r="E4">
-        <v>18.05995156221693</v>
+        <v>38.6466399859167</v>
       </c>
       <c r="F4">
-        <v>49.98661468600267</v>
+        <v>12.5031359563802</v>
       </c>
       <c r="G4">
-        <v>2.100564046441761</v>
+        <v>16.42539273791945</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.867362688731245</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.568661563647565</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.94803307799938</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>17.78333488820205</v>
+        <v>62.94939825046865</v>
       </c>
       <c r="N4">
-        <v>14.79229199011486</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>8.854334169678896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.13592786488907</v>
+        <v>6.57686440255124</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.08907634846184</v>
+        <v>3.913170588006395</v>
       </c>
       <c r="E5">
-        <v>17.6568499261266</v>
+        <v>37.72829634867713</v>
       </c>
       <c r="F5">
-        <v>49.3838637292406</v>
+        <v>12.16873565041814</v>
       </c>
       <c r="G5">
-        <v>2.10619288770211</v>
+        <v>15.93582666855745</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.875284787352493</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.413720385906107</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.72078548247239</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>17.54470255634193</v>
+        <v>61.55121275791537</v>
       </c>
       <c r="N5">
-        <v>14.88503422989058</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8.590512855759041</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.08322170147835</v>
+        <v>6.561110679408874</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.03970244601309</v>
+        <v>3.901766531011677</v>
       </c>
       <c r="E6">
-        <v>17.58937607935541</v>
+        <v>37.57486164552088</v>
       </c>
       <c r="F6">
-        <v>49.28432141202718</v>
+        <v>12.11307559794943</v>
       </c>
       <c r="G6">
-        <v>2.107129846459392</v>
+        <v>15.85447803760519</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.876907145308569</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.387850575240233</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.68296908052172</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>17.50507628059982</v>
+        <v>61.31705957795837</v>
       </c>
       <c r="N6">
-        <v>14.90045576881119</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.54658948236195</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.44828505684631</v>
+        <v>6.670053403012273</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.38021246001843</v>
+        <v>3.980309075373146</v>
       </c>
       <c r="E7">
-        <v>18.05455101830536</v>
+        <v>38.63431683505679</v>
       </c>
       <c r="F7">
-        <v>49.97844913777051</v>
+        <v>12.49863486161996</v>
       </c>
       <c r="G7">
-        <v>2.100639813056929</v>
+        <v>16.41879373718004</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.867448541792929</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.566581423333059</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.94497387463664</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>17.7801167776385</v>
+        <v>62.93067350614054</v>
       </c>
       <c r="N7">
-        <v>14.79354138171966</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8.850783690490061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.03918200020139</v>
+        <v>7.140107734155032</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.83136866401358</v>
+        <v>4.311784303635672</v>
       </c>
       <c r="E8">
-        <v>20.03259116400491</v>
+        <v>43.18840469075613</v>
       </c>
       <c r="F8">
-        <v>53.12300241213925</v>
+        <v>14.18319315551332</v>
       </c>
       <c r="G8">
-        <v>2.07224292774972</v>
+        <v>18.90537499253958</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.874905660391214</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.33550135342014</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.08912976154114</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>18.99313817391391</v>
+        <v>69.77947943809112</v>
       </c>
       <c r="N8">
-        <v>14.32381203474841</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.17961902025102</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.08873596806676</v>
+        <v>8.019608280271727</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.52738164030815</v>
+        <v>4.910061053539811</v>
       </c>
       <c r="E9">
-        <v>23.6873544311142</v>
+        <v>51.89443769944001</v>
       </c>
       <c r="F9">
-        <v>59.62885639028686</v>
+        <v>17.46846669614884</v>
       </c>
       <c r="G9">
-        <v>2.016346606124928</v>
+        <v>23.84457425931564</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.70172044168821</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.78506577044077</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.58872839497356</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>21.42557892234206</v>
+        <v>82.44595185882699</v>
       </c>
       <c r="N9">
-        <v>13.39743646183678</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.78324944719879</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.39357405791984</v>
+        <v>8.712948197691233</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.46168201861011</v>
+        <v>5.323677547478945</v>
       </c>
       <c r="E10">
-        <v>26.29261241611061</v>
+        <v>58.46481432206513</v>
       </c>
       <c r="F10">
-        <v>64.70017734312032</v>
+        <v>19.94261215557715</v>
       </c>
       <c r="G10">
-        <v>1.973777342064838</v>
+        <v>27.63925277451236</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.623340535303401</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.83398511513963</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.53552879344976</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>23.74873786682403</v>
+        <v>91.589579012737</v>
       </c>
       <c r="N10">
-        <v>12.69837924465376</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.76481290689135</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.52411970540816</v>
+        <v>9.046749565390538</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.34568082170639</v>
+        <v>5.508687881718998</v>
       </c>
       <c r="E11">
-        <v>27.47844274614897</v>
+        <v>61.61015930851075</v>
       </c>
       <c r="F11">
-        <v>67.10301566772503</v>
+        <v>21.10944661804979</v>
       </c>
       <c r="G11">
-        <v>1.953652597571296</v>
+        <v>29.45167937691077</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.065952532873012</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.3144133140806</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.41548568736212</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>24.79439611426032</v>
+        <v>95.82642062394785</v>
       </c>
       <c r="N11">
-        <v>12.37184376540022</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.70760197770312</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.95212907465321</v>
+        <v>9.171684559646682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.68267341829598</v>
+        <v>5.578667214799049</v>
       </c>
       <c r="E12">
-        <v>27.92970152144333</v>
+        <v>62.84061537134092</v>
       </c>
       <c r="F12">
-        <v>68.030868125597</v>
+        <v>21.56122730248395</v>
       </c>
       <c r="G12">
-        <v>1.945871883873393</v>
+        <v>30.15750224481663</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.238652905791854</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.49763442255894</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.74921939965414</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>25.19016994978546</v>
+        <v>97.45766176808947</v>
       </c>
       <c r="N12">
-        <v>12.24646735000342</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.07425352171515</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.85992884989371</v>
+        <v>9.144836683009107</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.6099640190048</v>
+        <v>5.563591066761187</v>
       </c>
       <c r="E13">
-        <v>27.83237527002177</v>
+        <v>62.57348926286581</v>
       </c>
       <c r="F13">
-        <v>67.83015627391936</v>
+        <v>21.46339941194029</v>
       </c>
       <c r="G13">
-        <v>1.94755569937868</v>
+        <v>30.0044676056791</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.201193987605316</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.45810064310304</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.67729521880865</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>25.1049141707311</v>
+        <v>97.10480605024075</v>
       </c>
       <c r="N13">
-        <v>12.27355550446397</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.99477917687872</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.55932540708189</v>
+        <v>9.057055295601849</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.37334904744029</v>
+        <v>5.514443794042324</v>
       </c>
       <c r="E14">
-        <v>27.51550916935401</v>
+        <v>61.71046972601909</v>
       </c>
       <c r="F14">
-        <v>67.17896128544244</v>
+        <v>21.14638538819157</v>
       </c>
       <c r="G14">
-        <v>1.953016027843593</v>
+        <v>29.50930256080228</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.080045236712053</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.32945533839893</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.44292273539315</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>24.8269508471476</v>
+        <v>95.95996521202038</v>
       </c>
       <c r="N14">
-        <v>12.36156686980387</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.73754521780297</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.37522929824417</v>
+        <v>9.003106450073252</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.22876577171338</v>
+        <v>5.484344015130658</v>
       </c>
       <c r="E15">
-        <v>27.32178189389982</v>
+        <v>61.18763284176961</v>
       </c>
       <c r="F15">
-        <v>66.78257391041234</v>
+        <v>20.95365204389165</v>
       </c>
       <c r="G15">
-        <v>1.95633802929903</v>
+        <v>29.20881392613699</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.006568911703237</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.25085418581382</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.29947627846243</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>24.65671453536561</v>
+        <v>95.26282145123098</v>
       </c>
       <c r="N15">
-        <v>12.41523473118928</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.58137967809636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.3195962716081</v>
+        <v>8.6909092012818</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.40412253536396</v>
+        <v>5.311550671520059</v>
       </c>
       <c r="E16">
-        <v>26.21529506474436</v>
+        <v>58.26365790744102</v>
       </c>
       <c r="F16">
-        <v>64.54539685237518</v>
+        <v>19.86748477576392</v>
       </c>
       <c r="G16">
-        <v>1.975073274901171</v>
+        <v>27.5230691111054</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.595013371825253</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.80271791945609</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.47801195428846</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>23.68028794767138</v>
+        <v>91.31541791755886</v>
       </c>
       <c r="N16">
-        <v>12.71950779176993</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.70430677979488</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.67031616511905</v>
+        <v>8.496419937266948</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.90029870654195</v>
+        <v>5.204948185423874</v>
       </c>
       <c r="E17">
-        <v>25.53798241819861</v>
+        <v>56.5194987950938</v>
       </c>
       <c r="F17">
-        <v>63.20002094913959</v>
+        <v>19.21400539767697</v>
       </c>
       <c r="G17">
-        <v>1.986340769100138</v>
+        <v>26.51503017322898</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.349499368884643</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.52914114592054</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.97344409287974</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>23.07929856259971</v>
+        <v>88.92256797019908</v>
       </c>
       <c r="N17">
-        <v>12.90366893719627</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.17894867067825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.32891028720238</v>
+        <v>8.383378203685311</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.61077277492949</v>
+        <v>5.143306760807172</v>
       </c>
       <c r="E18">
-        <v>25.14831695279383</v>
+        <v>55.52967687170406</v>
       </c>
       <c r="F18">
-        <v>62.43489702907205</v>
+        <v>18.84171335847144</v>
       </c>
       <c r="G18">
-        <v>1.992753793547125</v>
+        <v>25.94277916192779</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.210345539078799</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.37203224993864</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.68259921340846</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>22.73247010629153</v>
+        <v>87.55229349279816</v>
       </c>
       <c r="N18">
-        <v>13.00882667454355</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.88037634951286</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.21662216735123</v>
+        <v>8.344895023368142</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.51274653996773</v>
+        <v>5.122371664672437</v>
       </c>
       <c r="E19">
-        <v>25.0163128561638</v>
+        <v>55.19645166067539</v>
       </c>
       <c r="F19">
-        <v>62.17723054743583</v>
+        <v>18.71618358505383</v>
       </c>
       <c r="G19">
-        <v>1.994914798971008</v>
+        <v>25.75015777068573</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.163544610720171</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.31885923240202</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.58398175074627</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>22.61480528250269</v>
+        <v>87.08901570283312</v>
       </c>
       <c r="N19">
-        <v>13.04431271834793</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.77981796411759</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.73952905817232</v>
+        <v>8.517243682322736</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.95389431356508</v>
+        <v>5.216327925177769</v>
       </c>
       <c r="E20">
-        <v>25.61007992747601</v>
+        <v>56.70368788338867</v>
       </c>
       <c r="F20">
-        <v>63.34231266977825</v>
+        <v>19.28317698152818</v>
       </c>
       <c r="G20">
-        <v>1.98514865365849</v>
+        <v>26.62151614882358</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.37541179929199</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.5582333899185</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.02721316760751</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>23.14338561543125</v>
+        <v>89.17657715202341</v>
       </c>
       <c r="N20">
-        <v>12.88414723851005</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.23448025806597</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.64761026082479</v>
+        <v>9.082875640212992</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.44277185046409</v>
+        <v>5.528877627835318</v>
       </c>
       <c r="E21">
-        <v>27.60850010193453</v>
+        <v>61.96270877333512</v>
       </c>
       <c r="F21">
-        <v>67.36970465466968</v>
+        <v>21.2391881530811</v>
       </c>
       <c r="G21">
-        <v>1.951417023293257</v>
+        <v>29.65413947433073</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.115472701732958</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.36719845611037</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.51173696517883</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>24.90858716757641</v>
+        <v>96.29533628744686</v>
       </c>
       <c r="N21">
-        <v>12.33576724384909</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.81280017952708</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.89501090940492</v>
+        <v>9.444247248591656</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>20.43011927489755</v>
+        <v>5.733053521275205</v>
       </c>
       <c r="E22">
-        <v>28.92902142623647</v>
+        <v>65.64565088651446</v>
       </c>
       <c r="F22">
-        <v>70.15418605819896</v>
+        <v>22.57918363123995</v>
       </c>
       <c r="G22">
-        <v>1.928402331987027</v>
+        <v>31.75651644576226</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.630493271135038</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.90406397007395</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.48591810998994</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>26.06214290966443</v>
+        <v>101.1192400090782</v>
       </c>
       <c r="N22">
-        <v>11.96697739038852</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.90398060036539</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.22866437918121</v>
+        <v>9.251997432462108</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.90114378402605</v>
+        <v>5.623897997274183</v>
       </c>
       <c r="E23">
-        <v>28.22201526183188</v>
+        <v>63.64901955300477</v>
       </c>
       <c r="F23">
-        <v>68.63561118371085</v>
+        <v>21.85638845395782</v>
       </c>
       <c r="G23">
-        <v>1.940795846039974</v>
+        <v>30.61989672477176</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.351881870825918</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.61642645847448</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.96505568706642</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>25.4458820669059</v>
+        <v>98.52114456293836</v>
       </c>
       <c r="N23">
-        <v>12.16496104385388</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.31431404874429</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.70824164997287</v>
+        <v>8.507833109957458</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.92966345450438</v>
+        <v>5.211184272765816</v>
       </c>
       <c r="E24">
-        <v>25.57748563186824</v>
+        <v>56.62037688351245</v>
       </c>
       <c r="F24">
-        <v>63.27795686345482</v>
+        <v>19.25189417872816</v>
       </c>
       <c r="G24">
-        <v>1.985687807329812</v>
+        <v>26.5733516262747</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.363690689837853</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.54508030219713</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.00290663648926</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>23.11441604419268</v>
+        <v>89.06172381140047</v>
       </c>
       <c r="N24">
-        <v>12.89297520222263</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.20936388805171</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.2701962163979</v>
+        <v>7.786365567608003</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.81006756532841</v>
+        <v>4.753334874915729</v>
       </c>
       <c r="E25">
-        <v>22.71759110427448</v>
+        <v>49.53754029180541</v>
       </c>
       <c r="F25">
-        <v>57.8258239334719</v>
+        <v>16.57592341878779</v>
       </c>
       <c r="G25">
-        <v>2.03161319770236</v>
+        <v>22.49141401734125</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.37527975286051</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.3975184414319</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.85988277953317</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>20.72810877486656</v>
+        <v>79.07566909849278</v>
       </c>
       <c r="N25">
-        <v>13.65000371131608</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.07334426777475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.264695548742181</v>
+        <v>7.777394427631627</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.397973809316023</v>
+        <v>3.913551938256025</v>
       </c>
       <c r="E2">
-        <v>44.3988985167973</v>
+        <v>24.77813489550095</v>
       </c>
       <c r="F2">
-        <v>14.63661725742157</v>
+        <v>14.39874806927744</v>
       </c>
       <c r="G2">
-        <v>19.58019810806916</v>
+        <v>12.55557070345097</v>
       </c>
       <c r="H2">
-        <v>4.890421047278071</v>
+        <v>9.760206115205513</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>71.57523133138834</v>
+        <v>41.70943355896958</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.53767141610382</v>
+        <v>12.64664912365187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.900193948400643</v>
+        <v>7.70438390383349</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.143969726102231</v>
+        <v>3.824319641341575</v>
       </c>
       <c r="E3">
-        <v>40.86447787920262</v>
+        <v>23.45406446605677</v>
       </c>
       <c r="F3">
-        <v>13.31870786577623</v>
+        <v>14.43342814876545</v>
       </c>
       <c r="G3">
-        <v>17.62516265819117</v>
+        <v>12.46742999772402</v>
       </c>
       <c r="H3">
-        <v>4.861168985371464</v>
+        <v>9.848533404656713</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>66.30256447561536</v>
+        <v>39.17459272116542</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.497560876020216</v>
+        <v>12.77313602701759</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67132260493799</v>
+        <v>7.661040094432058</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.981219804902382</v>
+        <v>3.768248532639944</v>
       </c>
       <c r="E4">
-        <v>38.6466399859167</v>
+        <v>22.61131405159509</v>
       </c>
       <c r="F4">
-        <v>12.5031359563802</v>
+        <v>14.46609038503658</v>
       </c>
       <c r="G4">
-        <v>16.42539273791945</v>
+        <v>12.43324164718997</v>
       </c>
       <c r="H4">
-        <v>4.867362688731245</v>
+        <v>9.906446167388641</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>62.94939825046865</v>
+        <v>37.52617374171734</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.854334169678896</v>
+        <v>12.85920097544092</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57686440255124</v>
+        <v>7.643769552631525</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.913170588006395</v>
+        <v>3.745101196679014</v>
       </c>
       <c r="E5">
-        <v>37.72829634867713</v>
+        <v>22.26088586363028</v>
       </c>
       <c r="F5">
-        <v>12.16873565041814</v>
+        <v>14.48220765844248</v>
       </c>
       <c r="G5">
-        <v>15.93582666855745</v>
+        <v>12.42425383215053</v>
       </c>
       <c r="H5">
-        <v>4.875284787352493</v>
+        <v>9.930963622379004</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>61.55121275791537</v>
+        <v>36.83137607493027</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.590512855759041</v>
+        <v>12.89634354089344</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561110679408874</v>
+        <v>7.640926034875652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.901766531011677</v>
+        <v>3.741240351011177</v>
       </c>
       <c r="E6">
-        <v>37.57486164552088</v>
+        <v>22.20229061790129</v>
       </c>
       <c r="F6">
-        <v>12.11307559794943</v>
+        <v>14.48505188128135</v>
       </c>
       <c r="G6">
-        <v>15.85447803760519</v>
+        <v>12.42305753227183</v>
       </c>
       <c r="H6">
-        <v>4.876907145308569</v>
+        <v>9.935089923574894</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>61.31705957795837</v>
+        <v>36.71461636081034</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.54658948236195</v>
+        <v>12.90263486092602</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.670053403012273</v>
+        <v>7.660805564391509</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.980309075373146</v>
+        <v>3.767937532338189</v>
       </c>
       <c r="E7">
-        <v>38.63431683505679</v>
+        <v>22.60661569438712</v>
       </c>
       <c r="F7">
-        <v>12.49863486161996</v>
+        <v>14.46629645313204</v>
       </c>
       <c r="G7">
-        <v>16.41879373718004</v>
+        <v>12.4331005244355</v>
       </c>
       <c r="H7">
-        <v>4.867448541792929</v>
+        <v>9.90677311325997</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>62.93067350614054</v>
+        <v>37.51689665918185</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.850783690490061</v>
+        <v>12.8596935653508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.140107734155032</v>
+        <v>7.751923808208459</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.311784303635672</v>
+        <v>3.88306498190269</v>
       </c>
       <c r="E8">
-        <v>43.18840469075613</v>
+        <v>24.32803737797078</v>
       </c>
       <c r="F8">
-        <v>14.18319315551332</v>
+        <v>14.40831647131663</v>
       </c>
       <c r="G8">
-        <v>18.90537499253958</v>
+        <v>12.52101128489644</v>
       </c>
       <c r="H8">
-        <v>4.874905660391214</v>
+        <v>9.789892999922259</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>69.77947943809112</v>
+        <v>40.85455715801276</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.17961902025102</v>
+        <v>12.68849249936835</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.019608280271727</v>
+        <v>7.941523308371224</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.910061053539811</v>
+        <v>4.097657292475657</v>
       </c>
       <c r="E9">
-        <v>51.89443769944001</v>
+        <v>27.46767183169291</v>
       </c>
       <c r="F9">
-        <v>17.46846669614884</v>
+        <v>14.38690250827996</v>
       </c>
       <c r="G9">
-        <v>23.84457425931564</v>
+        <v>12.85307775177844</v>
       </c>
       <c r="H9">
-        <v>5.70172044168821</v>
+        <v>9.59024076159006</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>82.44595185882699</v>
+        <v>46.66775339103221</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.78324944719879</v>
+        <v>12.42134552157053</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.712948197691233</v>
+        <v>8.086284752065778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.323677547478945</v>
+        <v>4.247279735915783</v>
       </c>
       <c r="E10">
-        <v>58.46481432206513</v>
+        <v>29.91239468093735</v>
       </c>
       <c r="F10">
-        <v>19.94261215557715</v>
+        <v>14.42991232370566</v>
       </c>
       <c r="G10">
-        <v>27.63925277451236</v>
+        <v>13.19439282980482</v>
       </c>
       <c r="H10">
-        <v>6.623340535303401</v>
+        <v>9.462073527722506</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>91.589579012737</v>
+        <v>50.49213433385651</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.76481290689135</v>
+        <v>12.26953632627007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.046749565390538</v>
+        <v>8.153067046820592</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.508687881718998</v>
+        <v>4.313373194674338</v>
       </c>
       <c r="E11">
-        <v>61.61015930851075</v>
+        <v>30.96481293179755</v>
       </c>
       <c r="F11">
-        <v>21.10944661804979</v>
+        <v>14.46265065027929</v>
       </c>
       <c r="G11">
-        <v>29.45167937691077</v>
+        <v>13.37023732824282</v>
       </c>
       <c r="H11">
-        <v>7.065952532873012</v>
+        <v>9.407902715611852</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>95.82642062394785</v>
+        <v>52.1353411852231</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.70760197770312</v>
+        <v>12.21070756122952</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.171684559646682</v>
+        <v>8.17846754226335</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.578667214799049</v>
+        <v>4.338100733253474</v>
       </c>
       <c r="E12">
-        <v>62.84061537134092</v>
+        <v>31.35478377179228</v>
       </c>
       <c r="F12">
-        <v>21.56122730248395</v>
+        <v>14.47696758447728</v>
       </c>
       <c r="G12">
-        <v>30.15750224481663</v>
+        <v>13.43970352889225</v>
       </c>
       <c r="H12">
-        <v>7.238652905791854</v>
+        <v>9.387994111184142</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>97.45766176808947</v>
+        <v>52.74374714508555</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.07425352171515</v>
+        <v>12.18994968039284</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.144836683009107</v>
+        <v>8.172992484608439</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.563591066761187</v>
+        <v>4.332788844163623</v>
       </c>
       <c r="E13">
-        <v>62.57348926286581</v>
+        <v>31.27117661355898</v>
       </c>
       <c r="F13">
-        <v>21.46339941194029</v>
+        <v>14.47379846239253</v>
       </c>
       <c r="G13">
-        <v>30.0044676056791</v>
+        <v>13.42461626133699</v>
       </c>
       <c r="H13">
-        <v>7.201193987605316</v>
+        <v>9.392254721388275</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>97.10480605024075</v>
+        <v>52.61333086013958</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.99477917687872</v>
+        <v>12.19435192228792</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.057055295601849</v>
+        <v>8.155154653135316</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.514443794042324</v>
+        <v>4.31541366245833</v>
       </c>
       <c r="E14">
-        <v>61.71046972601909</v>
+        <v>30.99706737282981</v>
       </c>
       <c r="F14">
-        <v>21.14638538819157</v>
+        <v>14.46378991747027</v>
       </c>
       <c r="G14">
-        <v>29.50930256080228</v>
+        <v>13.37589521859423</v>
       </c>
       <c r="H14">
-        <v>7.080045236712053</v>
+        <v>9.406252642696266</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>95.95996521202038</v>
+        <v>52.18567223345787</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.73754521780297</v>
+        <v>12.20896907265015</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.003106450073252</v>
+        <v>8.144242328895261</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.484344015130658</v>
+        <v>4.30473122620985</v>
       </c>
       <c r="E15">
-        <v>61.18763284176961</v>
+        <v>30.82805414209445</v>
       </c>
       <c r="F15">
-        <v>20.95365204389165</v>
+        <v>14.45791003536362</v>
       </c>
       <c r="G15">
-        <v>29.20881392613699</v>
+        <v>13.34642417366674</v>
       </c>
       <c r="H15">
-        <v>7.006568911703237</v>
+        <v>9.414905839027512</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>95.26282145123098</v>
+        <v>51.92191786082677</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.58137967809636</v>
+        <v>12.218121788297</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.6909092012818</v>
+        <v>8.08193717951284</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.311550671520059</v>
+        <v>4.24291921040141</v>
       </c>
       <c r="E16">
-        <v>58.26365790744102</v>
+        <v>29.84241750452026</v>
       </c>
       <c r="F16">
-        <v>19.86748477576392</v>
+        <v>14.42804018259895</v>
       </c>
       <c r="G16">
-        <v>27.5230691111054</v>
+        <v>13.18330857807889</v>
       </c>
       <c r="H16">
-        <v>6.595013371825253</v>
+        <v>9.46569776363663</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>91.31541791755886</v>
+        <v>50.38280766820358</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.70430677979488</v>
+        <v>12.27359090022853</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.496419937266948</v>
+        <v>8.04393727298061</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.204948185423874</v>
+        <v>4.204482071515373</v>
       </c>
       <c r="E17">
-        <v>56.5194987950938</v>
+        <v>29.22248741248673</v>
       </c>
       <c r="F17">
-        <v>19.21400539767697</v>
+        <v>14.41310993302105</v>
       </c>
       <c r="G17">
-        <v>26.51503017322898</v>
+        <v>13.08846180720703</v>
       </c>
       <c r="H17">
-        <v>6.349499368884643</v>
+        <v>9.497922803025331</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>88.92256797019908</v>
+        <v>49.41391531839842</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.17894867067825</v>
+        <v>12.31027384784774</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.383378203685311</v>
+        <v>8.022169555659707</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.143306760807172</v>
+        <v>4.182189502276072</v>
       </c>
       <c r="E18">
-        <v>55.52967687170406</v>
+        <v>28.86029855606507</v>
       </c>
       <c r="F18">
-        <v>18.84171335847144</v>
+        <v>14.40576121807544</v>
       </c>
       <c r="G18">
-        <v>25.94277916192779</v>
+        <v>13.03585171939609</v>
       </c>
       <c r="H18">
-        <v>6.210345539078799</v>
+        <v>9.516846176101</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>87.55229349279816</v>
+        <v>48.84754561870165</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.88037634951286</v>
+        <v>12.33233291036646</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.344895023368142</v>
+        <v>8.014815313324146</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.122371664672437</v>
+        <v>4.174610476846143</v>
       </c>
       <c r="E19">
-        <v>55.19645166067539</v>
+        <v>28.73670147149994</v>
       </c>
       <c r="F19">
-        <v>18.71618358505383</v>
+        <v>14.40348495382612</v>
       </c>
       <c r="G19">
-        <v>25.75015777068573</v>
+        <v>13.01837474608291</v>
       </c>
       <c r="H19">
-        <v>6.163544610720171</v>
+        <v>9.523319700634545</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>87.08901570283312</v>
+        <v>48.65422063482097</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.77981796411759</v>
+        <v>12.33996514213339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.517243682322736</v>
+        <v>8.04797339594751</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.216327925177769</v>
+        <v>4.208592999987119</v>
       </c>
       <c r="E20">
-        <v>56.70368788338867</v>
+        <v>29.28906166185152</v>
       </c>
       <c r="F20">
-        <v>19.28317698152818</v>
+        <v>14.41457087195831</v>
       </c>
       <c r="G20">
-        <v>26.62151614882358</v>
+        <v>13.09835781231641</v>
       </c>
       <c r="H20">
-        <v>6.37541179929199</v>
+        <v>9.49445212261633</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>89.17657715202341</v>
+        <v>49.51799593799515</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.23448025806597</v>
+        <v>12.30626917974703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.082875640212992</v>
+        <v>8.160391207100995</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.528877627835318</v>
+        <v>4.320525463242941</v>
       </c>
       <c r="E21">
-        <v>61.96270877333512</v>
+        <v>31.07781187180876</v>
       </c>
       <c r="F21">
-        <v>21.2391881530811</v>
+        <v>14.46667739988568</v>
       </c>
       <c r="G21">
-        <v>29.65413947433073</v>
+        <v>13.39012841811607</v>
       </c>
       <c r="H21">
-        <v>7.115472701732958</v>
+        <v>9.402124617637234</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>96.29533628744686</v>
+        <v>52.31166120338217</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.81280017952708</v>
+        <v>12.20463404351659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.444247248591656</v>
+        <v>8.234502404166138</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.733053521275205</v>
+        <v>4.391920613922605</v>
       </c>
       <c r="E22">
-        <v>65.64565088651446</v>
+        <v>32.19700537488222</v>
       </c>
       <c r="F22">
-        <v>22.57918363123995</v>
+        <v>14.51192849007399</v>
       </c>
       <c r="G22">
-        <v>31.75651644576226</v>
+        <v>13.59753970265584</v>
       </c>
       <c r="H22">
-        <v>7.630493271135038</v>
+        <v>9.345313053583086</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>101.1192400090782</v>
+        <v>54.05683424536479</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.90398060036539</v>
+        <v>12.14708756688896</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.251997432462108</v>
+        <v>8.194896630198883</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.623897997274183</v>
+        <v>4.353981954540525</v>
       </c>
       <c r="E23">
-        <v>63.64901955300477</v>
+        <v>31.6042212589645</v>
       </c>
       <c r="F23">
-        <v>21.85638845395782</v>
+        <v>14.48674589028563</v>
       </c>
       <c r="G23">
-        <v>30.61989672477176</v>
+        <v>13.48534221335436</v>
       </c>
       <c r="H23">
-        <v>7.351881870825918</v>
+        <v>9.375307944515745</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>98.52114456293836</v>
+        <v>53.13276599219957</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.31431404874429</v>
+        <v>12.17697294160092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.507833109957458</v>
+        <v>8.046148417205643</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.211184272765816</v>
+        <v>4.206735053866987</v>
       </c>
       <c r="E24">
-        <v>56.62037688351245</v>
+        <v>29.25898145778585</v>
       </c>
       <c r="F24">
-        <v>19.25189417872816</v>
+        <v>14.41390653707643</v>
       </c>
       <c r="G24">
-        <v>26.5733516262747</v>
+        <v>13.09387784648819</v>
       </c>
       <c r="H24">
-        <v>6.363690689837853</v>
+        <v>9.4960199821638</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>89.06172381140047</v>
+        <v>49.47097018653556</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.20936388805171</v>
+        <v>12.30807667392687</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.786365567608003</v>
+        <v>7.889184622194451</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.753334874915729</v>
+        <v>4.040933322818793</v>
       </c>
       <c r="E25">
-        <v>49.53754029180541</v>
+        <v>26.63495701852032</v>
       </c>
       <c r="F25">
-        <v>16.57592341878779</v>
+        <v>14.38253920721952</v>
       </c>
       <c r="G25">
-        <v>22.49141401734125</v>
+        <v>12.7460422288692</v>
       </c>
       <c r="H25">
-        <v>5.37527975286051</v>
+        <v>9.641037818550972</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>79.07566909849278</v>
+        <v>45.17361702889988</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.07334426777475</v>
+        <v>12.48600177186258</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.777394427631627</v>
+        <v>7.264695548742002</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.913551938256025</v>
+        <v>4.397973809315923</v>
       </c>
       <c r="E2">
-        <v>24.77813489550095</v>
+        <v>44.39889851679749</v>
       </c>
       <c r="F2">
-        <v>14.39874806927744</v>
+        <v>14.63661725742155</v>
       </c>
       <c r="G2">
-        <v>12.55557070345097</v>
+        <v>19.58019810806911</v>
       </c>
       <c r="H2">
-        <v>9.760206115205513</v>
+        <v>4.890421047278056</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>41.70943355896958</v>
+        <v>71.57523133138852</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.64664912365187</v>
+        <v>10.5376714161038</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.70438390383349</v>
+        <v>6.90019394840073</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.824319641341575</v>
+        <v>4.143969726102161</v>
       </c>
       <c r="E3">
-        <v>23.45406446605677</v>
+        <v>40.86447787920185</v>
       </c>
       <c r="F3">
-        <v>14.43342814876545</v>
+        <v>13.31870786577623</v>
       </c>
       <c r="G3">
-        <v>12.46742999772402</v>
+        <v>17.62516265819115</v>
       </c>
       <c r="H3">
-        <v>9.848533404656713</v>
+        <v>4.861168985371508</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>39.17459272116542</v>
+        <v>66.30256447561452</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.77313602701759</v>
+        <v>9.497560876020204</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.661040094432058</v>
+        <v>6.671322604937936</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.768248532639944</v>
+        <v>3.981219804902263</v>
       </c>
       <c r="E4">
-        <v>22.61131405159509</v>
+        <v>38.64663998591669</v>
       </c>
       <c r="F4">
-        <v>14.46609038503658</v>
+        <v>12.50313595638028</v>
       </c>
       <c r="G4">
-        <v>12.43324164718997</v>
+        <v>16.42539273791957</v>
       </c>
       <c r="H4">
-        <v>9.906446167388641</v>
+        <v>4.867362688731204</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>37.52617374171734</v>
+        <v>62.94939825046861</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.85920097544092</v>
+        <v>8.854334169678975</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.643769552631525</v>
+        <v>6.576864402551259</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.745101196679014</v>
+        <v>3.913170588006395</v>
       </c>
       <c r="E5">
-        <v>22.26088586363028</v>
+        <v>37.72829634867688</v>
       </c>
       <c r="F5">
-        <v>14.48220765844248</v>
+        <v>12.16873565041815</v>
       </c>
       <c r="G5">
-        <v>12.42425383215053</v>
+        <v>15.93582666855752</v>
       </c>
       <c r="H5">
-        <v>9.930963622379004</v>
+        <v>4.875284787352586</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>36.83137607493027</v>
+        <v>61.55121275791507</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.89634354089344</v>
+        <v>8.590512855759052</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.640926034875652</v>
+        <v>6.561110679408907</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.741240351011177</v>
+        <v>3.901766531011587</v>
       </c>
       <c r="E6">
-        <v>22.20229061790129</v>
+        <v>37.57486164552116</v>
       </c>
       <c r="F6">
-        <v>14.48505188128135</v>
+        <v>12.11307559794946</v>
       </c>
       <c r="G6">
-        <v>12.42305753227183</v>
+        <v>15.85447803760519</v>
       </c>
       <c r="H6">
-        <v>9.935089923574894</v>
+        <v>4.876907145308481</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>36.71461636081034</v>
+        <v>61.31705957795864</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.90263486092602</v>
+        <v>8.546589482361984</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.660805564391509</v>
+        <v>6.670053403012238</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.767937532338189</v>
+        <v>3.980309075373139</v>
       </c>
       <c r="E7">
-        <v>22.60661569438712</v>
+        <v>38.6343168350565</v>
       </c>
       <c r="F7">
-        <v>14.46629645313204</v>
+        <v>12.49863486161997</v>
       </c>
       <c r="G7">
-        <v>12.4331005244355</v>
+        <v>16.41879373718007</v>
       </c>
       <c r="H7">
-        <v>9.90677311325997</v>
+        <v>4.867448541792929</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>37.51689665918185</v>
+        <v>62.93067350614032</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.8596935653508</v>
+        <v>8.850783690490074</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.751923808208459</v>
+        <v>7.14010773415498</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.88306498190269</v>
+        <v>4.3117843036357</v>
       </c>
       <c r="E8">
-        <v>24.32803737797078</v>
+        <v>43.18840469075641</v>
       </c>
       <c r="F8">
-        <v>14.40831647131663</v>
+        <v>14.18319315551333</v>
       </c>
       <c r="G8">
-        <v>12.52101128489644</v>
+        <v>18.90537499253955</v>
       </c>
       <c r="H8">
-        <v>9.789892999922259</v>
+        <v>4.874905660391201</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>40.85455715801276</v>
+        <v>69.77947943809141</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.68849249936835</v>
+        <v>10.179619020251</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.941523308371224</v>
+        <v>8.019608280271861</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.097657292475657</v>
+        <v>4.910061053539843</v>
       </c>
       <c r="E9">
-        <v>27.46767183169291</v>
+        <v>51.89443769943992</v>
       </c>
       <c r="F9">
-        <v>14.38690250827996</v>
+        <v>17.46846669614875</v>
       </c>
       <c r="G9">
-        <v>12.85307775177844</v>
+        <v>23.84457425931546</v>
       </c>
       <c r="H9">
-        <v>9.59024076159006</v>
+        <v>5.70172044168821</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>46.66775339103221</v>
+        <v>82.445951858827</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.42134552157053</v>
+        <v>12.78324944719874</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.086284752065778</v>
+        <v>8.712948197691231</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.247279735915783</v>
+        <v>5.323677547478915</v>
       </c>
       <c r="E10">
-        <v>29.91239468093735</v>
+        <v>58.46481432206554</v>
       </c>
       <c r="F10">
-        <v>14.42991232370566</v>
+        <v>19.94261215557728</v>
       </c>
       <c r="G10">
-        <v>13.19439282980482</v>
+        <v>27.63925277451244</v>
       </c>
       <c r="H10">
-        <v>9.462073527722506</v>
+        <v>6.623340535303485</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>50.49213433385651</v>
+        <v>91.58957901273736</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.26953632627007</v>
+        <v>14.76481290689144</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.153067046820592</v>
+        <v>9.046749565390387</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.313373194674338</v>
+        <v>5.508687881719048</v>
       </c>
       <c r="E11">
-        <v>30.96481293179755</v>
+        <v>61.61015930851129</v>
       </c>
       <c r="F11">
-        <v>14.46265065027929</v>
+        <v>21.10944661804976</v>
       </c>
       <c r="G11">
-        <v>13.37023732824282</v>
+        <v>29.4516793769108</v>
       </c>
       <c r="H11">
-        <v>9.407902715611852</v>
+        <v>7.06595253287301</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>52.1353411852231</v>
+        <v>95.82642062394842</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.21070756122952</v>
+        <v>15.70760197770317</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.17846754226335</v>
+        <v>9.171684559646637</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.338100733253474</v>
+        <v>5.578667214798958</v>
       </c>
       <c r="E12">
-        <v>31.35478377179228</v>
+        <v>62.84061537134094</v>
       </c>
       <c r="F12">
-        <v>14.47696758447728</v>
+        <v>21.56122730248405</v>
       </c>
       <c r="G12">
-        <v>13.43970352889225</v>
+        <v>30.15750224481672</v>
       </c>
       <c r="H12">
-        <v>9.387994111184142</v>
+        <v>7.238652905791874</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>52.74374714508555</v>
+        <v>97.45766176808947</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.18994968039284</v>
+        <v>16.07425352171524</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.172992484608439</v>
+        <v>9.144836683009107</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.332788844163623</v>
+        <v>5.563591066761213</v>
       </c>
       <c r="E13">
-        <v>31.27117661355898</v>
+        <v>62.57348926286615</v>
       </c>
       <c r="F13">
-        <v>14.47379846239253</v>
+        <v>21.46339941194043</v>
       </c>
       <c r="G13">
-        <v>13.42461626133699</v>
+        <v>30.00446760567936</v>
       </c>
       <c r="H13">
-        <v>9.392254721388275</v>
+        <v>7.201193987605345</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>52.61333086013958</v>
+        <v>97.10480605024115</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.19435192228792</v>
+        <v>15.99477917687881</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.155154653135316</v>
+        <v>9.057055295601661</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.31541366245833</v>
+        <v>5.514443794042365</v>
       </c>
       <c r="E14">
-        <v>30.99706737282981</v>
+        <v>61.71046972601971</v>
       </c>
       <c r="F14">
-        <v>14.46378991747027</v>
+        <v>21.14638538819146</v>
       </c>
       <c r="G14">
-        <v>13.37589521859423</v>
+        <v>29.509302560802</v>
       </c>
       <c r="H14">
-        <v>9.406252642696266</v>
+        <v>7.080045236712032</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>52.18567223345787</v>
+        <v>95.95996521202093</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.20896907265015</v>
+        <v>15.7375452178029</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.144242328895261</v>
+        <v>9.003106450073298</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.30473122620985</v>
+        <v>5.484344015130699</v>
       </c>
       <c r="E15">
-        <v>30.82805414209445</v>
+        <v>61.18763284176916</v>
       </c>
       <c r="F15">
-        <v>14.45791003536362</v>
+        <v>20.95365204389172</v>
       </c>
       <c r="G15">
-        <v>13.34642417366674</v>
+        <v>29.20881392613723</v>
       </c>
       <c r="H15">
-        <v>9.414905839027512</v>
+        <v>7.006568911703237</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>51.92191786082677</v>
+        <v>95.26282145123054</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.218121788297</v>
+        <v>15.5813796780964</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.08193717951284</v>
+        <v>8.690909201281812</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.24291921040141</v>
+        <v>5.311550671520089</v>
       </c>
       <c r="E16">
-        <v>29.84241750452026</v>
+        <v>58.26365790744079</v>
       </c>
       <c r="F16">
-        <v>14.42804018259895</v>
+        <v>19.86748477576388</v>
       </c>
       <c r="G16">
-        <v>13.18330857807889</v>
+        <v>27.52306911110519</v>
       </c>
       <c r="H16">
-        <v>9.46569776363663</v>
+        <v>6.595013371825299</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>50.38280766820358</v>
+        <v>91.31541791755863</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.27359090022853</v>
+        <v>14.70430677979483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.04393727298061</v>
+        <v>8.496419937266991</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.204482071515373</v>
+        <v>5.204948185423882</v>
       </c>
       <c r="E17">
-        <v>29.22248741248673</v>
+        <v>56.51949879509429</v>
       </c>
       <c r="F17">
-        <v>14.41310993302105</v>
+        <v>19.21400539767697</v>
       </c>
       <c r="G17">
-        <v>13.08846180720703</v>
+        <v>26.51503017322901</v>
       </c>
       <c r="H17">
-        <v>9.497922803025331</v>
+        <v>6.349499368884621</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>49.41391531839842</v>
+        <v>88.92256797019955</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.31027384784774</v>
+        <v>14.17894867067827</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.022169555659707</v>
+        <v>8.383378203685275</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.182189502276072</v>
+        <v>5.143306760807179</v>
       </c>
       <c r="E18">
-        <v>28.86029855606507</v>
+        <v>55.52967687170398</v>
       </c>
       <c r="F18">
-        <v>14.40576121807544</v>
+        <v>18.84171335847142</v>
       </c>
       <c r="G18">
-        <v>13.03585171939609</v>
+        <v>25.94277916192779</v>
       </c>
       <c r="H18">
-        <v>9.516846176101</v>
+        <v>6.210345539078768</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>48.84754561870165</v>
+        <v>87.5522934927981</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.33233291036646</v>
+        <v>13.88037634951284</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.014815313324146</v>
+        <v>8.344895023368029</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.174610476846143</v>
+        <v>5.122371664672477</v>
       </c>
       <c r="E19">
-        <v>28.73670147149994</v>
+        <v>55.19645166067541</v>
       </c>
       <c r="F19">
-        <v>14.40348495382612</v>
+        <v>18.71618358505376</v>
       </c>
       <c r="G19">
-        <v>13.01837474608291</v>
+        <v>25.75015777068565</v>
       </c>
       <c r="H19">
-        <v>9.523319700634545</v>
+        <v>6.163544610720171</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>48.65422063482097</v>
+        <v>87.08901570283325</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.33996514213339</v>
+        <v>13.77981796411755</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.04797339594751</v>
+        <v>8.51724368232278</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.208592999987119</v>
+        <v>5.216327925177704</v>
       </c>
       <c r="E20">
-        <v>29.28906166185152</v>
+        <v>56.70368788338842</v>
       </c>
       <c r="F20">
-        <v>14.41457087195831</v>
+        <v>19.28317698152824</v>
       </c>
       <c r="G20">
-        <v>13.09835781231641</v>
+        <v>26.6215161488236</v>
       </c>
       <c r="H20">
-        <v>9.49445212261633</v>
+        <v>6.375411799292002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>49.51799593799515</v>
+        <v>89.1765771520232</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.30626917974703</v>
+        <v>14.23448025806599</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.160391207100995</v>
+        <v>9.082875640212988</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.320525463242941</v>
+        <v>5.528877627835207</v>
       </c>
       <c r="E21">
-        <v>31.07781187180876</v>
+        <v>61.96270877333442</v>
       </c>
       <c r="F21">
-        <v>14.46667739988568</v>
+        <v>21.23918815308121</v>
       </c>
       <c r="G21">
-        <v>13.39012841811607</v>
+        <v>29.6541394743308</v>
       </c>
       <c r="H21">
-        <v>9.402124617637234</v>
+        <v>7.115472701732986</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>52.31166120338217</v>
+        <v>96.29533628744613</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.20463404351659</v>
+        <v>15.81280017952712</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.234502404166138</v>
+        <v>9.444247248591557</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.391920613922605</v>
+        <v>5.733053521275179</v>
       </c>
       <c r="E22">
-        <v>32.19700537488222</v>
+        <v>65.64565088651482</v>
       </c>
       <c r="F22">
-        <v>14.51192849007399</v>
+        <v>22.57918363124002</v>
       </c>
       <c r="G22">
-        <v>13.59753970265584</v>
+        <v>31.75651644576241</v>
       </c>
       <c r="H22">
-        <v>9.345313053583086</v>
+        <v>7.630493271135075</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>54.05683424536479</v>
+        <v>101.1192400090786</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.14708756688896</v>
+        <v>16.90398060036544</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.194896630198883</v>
+        <v>9.251997432462067</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.353981954540525</v>
+        <v>5.623897997274149</v>
       </c>
       <c r="E23">
-        <v>31.6042212589645</v>
+        <v>63.64901955300459</v>
       </c>
       <c r="F23">
-        <v>14.48674589028563</v>
+        <v>21.85638845395785</v>
       </c>
       <c r="G23">
-        <v>13.48534221335436</v>
+        <v>30.61989672477182</v>
       </c>
       <c r="H23">
-        <v>9.375307944515745</v>
+        <v>7.351881870825924</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>53.13276599219957</v>
+        <v>98.52114456293816</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.17697294160092</v>
+        <v>16.31431404874428</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.046148417205643</v>
+        <v>8.507833109957433</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.206735053866987</v>
+        <v>5.211184272765846</v>
       </c>
       <c r="E24">
-        <v>29.25898145778585</v>
+        <v>56.62037688351317</v>
       </c>
       <c r="F24">
-        <v>14.41390653707643</v>
+        <v>19.25189417872811</v>
       </c>
       <c r="G24">
-        <v>13.09387784648819</v>
+        <v>26.5733516262747</v>
       </c>
       <c r="H24">
-        <v>9.4960199821638</v>
+        <v>6.363690689837788</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>49.47097018653556</v>
+        <v>89.06172381140112</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.30807667392687</v>
+        <v>14.20936388805167</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.889184622194451</v>
+        <v>7.786365567608112</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.040933322818793</v>
+        <v>4.753334874915704</v>
       </c>
       <c r="E25">
-        <v>26.63495701852032</v>
+        <v>49.53754029180489</v>
       </c>
       <c r="F25">
-        <v>14.38253920721952</v>
+        <v>16.57592341878781</v>
       </c>
       <c r="G25">
-        <v>12.7460422288692</v>
+        <v>22.49141401734124</v>
       </c>
       <c r="H25">
-        <v>9.641037818550972</v>
+        <v>5.375279752860523</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>45.17361702889988</v>
+        <v>79.07566909849226</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.48600177186258</v>
+        <v>12.07334426777474</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.264695548742002</v>
+        <v>17.11954801904624</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.397973809315923</v>
+        <v>7.896383252773697</v>
       </c>
       <c r="E2">
-        <v>44.39889851679749</v>
+        <v>14.64289935538869</v>
       </c>
       <c r="F2">
-        <v>14.63661725742155</v>
+        <v>30.23807862363797</v>
       </c>
       <c r="G2">
-        <v>19.58019810806911</v>
+        <v>46.1988322301139</v>
       </c>
       <c r="H2">
-        <v>4.890421047278056</v>
+        <v>2.132122663840958</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.879707073045829</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.21686546218632</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.35743713443832</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.295544503185845</v>
       </c>
       <c r="M2">
-        <v>71.57523133138852</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.66359353189064</v>
       </c>
       <c r="O2">
-        <v>10.5376714161038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.939543547879</v>
+      </c>
+      <c r="P2">
+        <v>13.66800786191364</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.90019394840073</v>
+        <v>16.10280786986811</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.143969726102161</v>
+        <v>7.551364748749763</v>
       </c>
       <c r="E3">
-        <v>40.86447787920185</v>
+        <v>13.95380385136354</v>
       </c>
       <c r="F3">
-        <v>13.31870786577623</v>
+        <v>29.09771064583633</v>
       </c>
       <c r="G3">
-        <v>17.62516265819115</v>
+        <v>43.69869644985326</v>
       </c>
       <c r="H3">
-        <v>4.861168985371508</v>
+        <v>2.413863836917156</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.028301138648425</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.80724483963747</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.5438064475875</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.960003262898779</v>
       </c>
       <c r="M3">
-        <v>66.30256447561452</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.00602413028947</v>
       </c>
       <c r="O3">
-        <v>9.497560876020204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.17389664194217</v>
+      </c>
+      <c r="P3">
+        <v>13.74251825459129</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.671322604937936</v>
+        <v>15.44246205533016</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.981219804902263</v>
+        <v>7.333230676649545</v>
       </c>
       <c r="E4">
-        <v>38.64663998591669</v>
+        <v>13.51635979124664</v>
       </c>
       <c r="F4">
-        <v>12.50313595638028</v>
+        <v>28.39160595451753</v>
       </c>
       <c r="G4">
-        <v>16.42539273791957</v>
+        <v>42.11913902796704</v>
       </c>
       <c r="H4">
-        <v>4.867362688731204</v>
+        <v>2.591983012242199</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.122916209317395</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.5566858950419</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.66133475040647</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.748277475680984</v>
       </c>
       <c r="M4">
-        <v>62.94939825046861</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>10.58637583502169</v>
       </c>
       <c r="O4">
-        <v>8.854334169678975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.68403319043103</v>
+      </c>
+      <c r="P4">
+        <v>13.7907910143341</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576864402551259</v>
+        <v>15.15639136133023</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.913170588006395</v>
+        <v>7.243602206937963</v>
       </c>
       <c r="E5">
-        <v>37.72829634867688</v>
+        <v>13.33801716057018</v>
       </c>
       <c r="F5">
-        <v>12.16873565041815</v>
+        <v>28.09379357889967</v>
       </c>
       <c r="G5">
-        <v>15.93582666855752</v>
+        <v>41.45152604372881</v>
       </c>
       <c r="H5">
-        <v>4.875284787352586</v>
+        <v>2.666156955960187</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.164828340871997</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.45211480266933</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.70475339715472</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.66231219069817</v>
       </c>
       <c r="M5">
-        <v>61.55121275791507</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10.41697473989568</v>
       </c>
       <c r="O5">
-        <v>8.590512855759052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.47957559875621</v>
+      </c>
+      <c r="P5">
+        <v>13.81221705747909</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561110679408907</v>
+        <v>15.09854280096548</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.901766531011587</v>
+        <v>7.22964045019217</v>
       </c>
       <c r="E6">
-        <v>37.57486164552116</v>
+        <v>13.3124595803763</v>
       </c>
       <c r="F6">
-        <v>12.11307559794946</v>
+        <v>28.03336021409526</v>
       </c>
       <c r="G6">
-        <v>15.85447803760519</v>
+        <v>41.32365346642653</v>
       </c>
       <c r="H6">
-        <v>4.876907145308481</v>
+        <v>2.678872430764675</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.175017967878126</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.43133516286038</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.70561482782024</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.650070594709332</v>
       </c>
       <c r="M6">
-        <v>61.31705957795864</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>10.39532767002508</v>
       </c>
       <c r="O6">
-        <v>8.546589482361984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.44528202426473</v>
+      </c>
+      <c r="P6">
+        <v>13.81720349917541</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.670053403012238</v>
+        <v>15.41242188050614</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.980309075373139</v>
+        <v>7.334769285164952</v>
       </c>
       <c r="E7">
-        <v>38.6343168350565</v>
+        <v>13.52547228289302</v>
       </c>
       <c r="F7">
-        <v>12.49863486161997</v>
+        <v>28.35815755951678</v>
       </c>
       <c r="G7">
-        <v>16.41879373718007</v>
+        <v>42.06626519778632</v>
       </c>
       <c r="H7">
-        <v>4.867448541792929</v>
+        <v>2.59382584231222</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.131879252096526</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.54598312355578</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.64445324448792</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.752865799532804</v>
       </c>
       <c r="M7">
-        <v>62.93067350614032</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10.60204982283996</v>
       </c>
       <c r="O7">
-        <v>8.850783690490074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.6811218573654</v>
+      </c>
+      <c r="P7">
+        <v>13.79498394597821</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.14010773415498</v>
+        <v>16.74426269992564</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.3117843036357</v>
+        <v>7.782213866184152</v>
       </c>
       <c r="E8">
-        <v>43.18840469075641</v>
+        <v>14.42279543894658</v>
       </c>
       <c r="F8">
-        <v>14.18319315551333</v>
+        <v>29.8091907407466</v>
       </c>
       <c r="G8">
-        <v>18.90537499253955</v>
+        <v>45.29214906238506</v>
       </c>
       <c r="H8">
-        <v>4.874905660391201</v>
+        <v>2.229263143148819</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.940862568400668</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.0636844651863</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.39797239525991</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.188441482746949</v>
       </c>
       <c r="M8">
-        <v>69.77947943809141</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.46230840840252</v>
       </c>
       <c r="O8">
-        <v>10.179619020251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.67948630831848</v>
+      </c>
+      <c r="P8">
+        <v>13.69882694595626</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.019608280271861</v>
+        <v>19.10855761618977</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.910061053539843</v>
+        <v>8.604949881494161</v>
       </c>
       <c r="E9">
-        <v>51.89443769943992</v>
+        <v>16.04885301921964</v>
       </c>
       <c r="F9">
-        <v>17.46846669614875</v>
+        <v>32.64386941522584</v>
       </c>
       <c r="G9">
-        <v>23.84457425931546</v>
+        <v>51.31469050034874</v>
       </c>
       <c r="H9">
-        <v>5.70172044168821</v>
+        <v>1.569076869434713</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.578633704543462</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.09797719507447</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.97102460918603</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.986956724032394</v>
       </c>
       <c r="M9">
-        <v>82.445951858827</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.99031041360938</v>
       </c>
       <c r="O9">
-        <v>12.78324944719874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.47460005908108</v>
+      </c>
+      <c r="P9">
+        <v>13.52276502094589</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.712948197691231</v>
+        <v>20.60032049875772</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.323677547478915</v>
+        <v>9.19969181495534</v>
       </c>
       <c r="E10">
-        <v>58.46481432206554</v>
+        <v>17.25707834857284</v>
       </c>
       <c r="F10">
-        <v>19.94261215557728</v>
+        <v>34.48174844926516</v>
       </c>
       <c r="G10">
-        <v>27.63925277451244</v>
+        <v>55.21625905589976</v>
       </c>
       <c r="H10">
-        <v>6.623340535303485</v>
+        <v>2.026448223991891</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.338282881598843</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.792599652731</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.61034440645296</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.5911696848895</v>
       </c>
       <c r="M10">
-        <v>91.58957901273736</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.0265254409491</v>
       </c>
       <c r="O10">
-        <v>14.76481290689144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.61391734669745</v>
+      </c>
+      <c r="P10">
+        <v>13.43020289330766</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.046749565390387</v>
+        <v>20.73455768801379</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.508687881719048</v>
+        <v>9.633629567539638</v>
       </c>
       <c r="E11">
-        <v>61.61015930851129</v>
+        <v>18.49422631671989</v>
       </c>
       <c r="F11">
-        <v>21.10944661804976</v>
+        <v>33.70250252274963</v>
       </c>
       <c r="G11">
-        <v>29.4516793769108</v>
+        <v>54.67879035227566</v>
       </c>
       <c r="H11">
-        <v>7.06595253287301</v>
+        <v>2.951667181341886</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.296985011283694</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.58824940990185</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.9741183565635</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.25526202781965</v>
       </c>
       <c r="M11">
-        <v>95.82642062394842</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.79292172815527</v>
       </c>
       <c r="O11">
-        <v>15.70760197770317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.47376850118291</v>
+      </c>
+      <c r="P11">
+        <v>13.61011625532858</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.171684559646637</v>
+        <v>20.56963326784373</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.578667214798958</v>
+        <v>9.877421277205542</v>
       </c>
       <c r="E12">
-        <v>62.84061537134094</v>
+        <v>19.302987767242</v>
       </c>
       <c r="F12">
-        <v>21.56122730248405</v>
+        <v>32.67196649308482</v>
       </c>
       <c r="G12">
-        <v>30.15750224481672</v>
+        <v>53.44273352618105</v>
       </c>
       <c r="H12">
-        <v>7.238652905791874</v>
+        <v>4.210820175069379</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.294125944743902</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.27216461467301</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.57452931867592</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.70614742531773</v>
       </c>
       <c r="M12">
-        <v>97.45766176808947</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.35042015222228</v>
       </c>
       <c r="O12">
-        <v>16.07425352171524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.11148325386178</v>
+      </c>
+      <c r="P12">
+        <v>13.79913752641506</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.144836683009107</v>
+        <v>20.12873874284082</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.563591066761213</v>
+        <v>9.997320099079667</v>
       </c>
       <c r="E13">
-        <v>62.57348926286615</v>
+        <v>19.86144414834377</v>
       </c>
       <c r="F13">
-        <v>21.46339941194043</v>
+        <v>31.31597485466684</v>
       </c>
       <c r="G13">
-        <v>30.00446760567936</v>
+        <v>51.48848083614953</v>
       </c>
       <c r="H13">
-        <v>7.201193987605345</v>
+        <v>5.522283565825072</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.334626420228874</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.82898699022819</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.31226883844283</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.03315803425305</v>
       </c>
       <c r="M13">
-        <v>97.10480605024115</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.72681272331582</v>
       </c>
       <c r="O13">
-        <v>15.99477917687881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.54611484037029</v>
+      </c>
+      <c r="P13">
+        <v>14.00657479989032</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.057055295601661</v>
+        <v>19.68289439423624</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.514443794042365</v>
+        <v>10.02774987052007</v>
       </c>
       <c r="E14">
-        <v>61.71046972601971</v>
+        <v>20.15132448042233</v>
       </c>
       <c r="F14">
-        <v>21.14638538819146</v>
+        <v>30.19768143402064</v>
       </c>
       <c r="G14">
-        <v>29.509302560802</v>
+        <v>49.75664332787309</v>
       </c>
       <c r="H14">
-        <v>7.080045236712032</v>
+        <v>6.461361330821854</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.38513051918929</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.45483749301406</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.19687455021034</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.21252332487584</v>
       </c>
       <c r="M14">
-        <v>95.95996521202093</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.20389352737505</v>
       </c>
       <c r="O14">
-        <v>15.7375452178029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.05099677696</v>
+      </c>
+      <c r="P14">
+        <v>14.16226407575652</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.003106450073298</v>
+        <v>19.50592704036908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.484344015130699</v>
+        <v>10.00944072904124</v>
       </c>
       <c r="E15">
-        <v>61.18763284176916</v>
+        <v>20.17095357569839</v>
       </c>
       <c r="F15">
-        <v>20.95365204389172</v>
+        <v>29.84640062861014</v>
       </c>
       <c r="G15">
-        <v>29.20881392613723</v>
+        <v>49.16332918657556</v>
       </c>
       <c r="H15">
-        <v>7.006568911703237</v>
+        <v>6.673534436455824</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.411038786434085</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.33393818701018</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.19050762524207</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.23006636911208</v>
       </c>
       <c r="M15">
-        <v>95.26282145123054</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.04074279521649</v>
       </c>
       <c r="O15">
-        <v>15.5813796780964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.88636019275935</v>
+      </c>
+      <c r="P15">
+        <v>14.20315792773026</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.690909201281812</v>
+        <v>18.93746346037915</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.311550671520089</v>
+        <v>9.7451631802229</v>
       </c>
       <c r="E16">
-        <v>58.26365790744079</v>
+        <v>19.59954575121495</v>
       </c>
       <c r="F16">
-        <v>19.86748477576388</v>
+        <v>29.24314114666764</v>
       </c>
       <c r="G16">
-        <v>27.52306911110519</v>
+        <v>47.73764032943003</v>
       </c>
       <c r="H16">
-        <v>6.595013371825299</v>
+        <v>6.465706156219129</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.511304783142009</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.09850935356529</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.39777150568315</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.92944299022927</v>
       </c>
       <c r="M16">
-        <v>91.31541791755863</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.67784899291944</v>
       </c>
       <c r="O16">
-        <v>14.70430677979483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.49246000145692</v>
+      </c>
+      <c r="P16">
+        <v>14.18606887363952</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.496419937266991</v>
+        <v>18.74079777724844</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.204948185423882</v>
+        <v>9.522296509089312</v>
       </c>
       <c r="E17">
-        <v>56.51949879509429</v>
+        <v>18.99003125039706</v>
       </c>
       <c r="F17">
-        <v>19.21400539767697</v>
+        <v>29.39744745824676</v>
       </c>
       <c r="G17">
-        <v>26.51503017322901</v>
+        <v>47.60277738970534</v>
       </c>
       <c r="H17">
-        <v>6.349499368884621</v>
+        <v>5.728009968018376</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.561988373867699</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.12378963878222</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.61132534005414</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.59503022736802</v>
       </c>
       <c r="M17">
-        <v>88.92256797019955</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.68821364192828</v>
       </c>
       <c r="O17">
-        <v>14.17894867067827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.46106482435044</v>
+      </c>
+      <c r="P17">
+        <v>14.09195413344777</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.383378203685275</v>
+        <v>18.86721545135885</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.143306760807179</v>
+        <v>9.310572511762908</v>
       </c>
       <c r="E18">
-        <v>55.52967687170398</v>
+        <v>18.28267652771994</v>
       </c>
       <c r="F18">
-        <v>18.84171335847142</v>
+        <v>30.23480890806225</v>
       </c>
       <c r="G18">
-        <v>25.94277916192779</v>
+        <v>48.59738591747725</v>
       </c>
       <c r="H18">
-        <v>6.210345539078768</v>
+        <v>4.46312015366808</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.564979507643436</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.37930834413068</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.88570065417679</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.1984500643933</v>
       </c>
       <c r="M18">
-        <v>87.5522934927981</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.01685544635751</v>
       </c>
       <c r="O18">
-        <v>13.88037634951284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.74020919217919</v>
+      </c>
+      <c r="P18">
+        <v>13.9247542576469</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.344895023368029</v>
+        <v>19.2006429272365</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.122371664672477</v>
+        <v>9.132756700519913</v>
       </c>
       <c r="E19">
-        <v>55.19645166067541</v>
+        <v>17.5948164949839</v>
       </c>
       <c r="F19">
-        <v>18.71618358505376</v>
+        <v>31.49240262974471</v>
       </c>
       <c r="G19">
-        <v>25.75015777068565</v>
+        <v>50.33094698089489</v>
       </c>
       <c r="H19">
-        <v>6.163544610720171</v>
+        <v>2.960376828726045</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.544531213213872</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.77904750261605</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.20043014433747</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.81078596188766</v>
       </c>
       <c r="M19">
-        <v>87.08901570283325</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.59980803681515</v>
       </c>
       <c r="O19">
-        <v>13.77981796411755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.24014863168727</v>
+      </c>
+      <c r="P19">
+        <v>13.73894668598318</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.51724368232278</v>
+        <v>20.15349112452455</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.216327925177704</v>
+        <v>9.053798499437818</v>
       </c>
       <c r="E20">
-        <v>56.70368788338842</v>
+        <v>16.97873209348445</v>
       </c>
       <c r="F20">
-        <v>19.28317698152824</v>
+        <v>33.91696862238439</v>
       </c>
       <c r="G20">
-        <v>26.6215161488236</v>
+        <v>54.08737804749768</v>
       </c>
       <c r="H20">
-        <v>6.375411799292002</v>
+        <v>1.903886387965295</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.428384723347056</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.58277672501224</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.64778033347856</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.45269287882661</v>
       </c>
       <c r="M20">
-        <v>89.1765771520232</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.78775780396691</v>
       </c>
       <c r="O20">
-        <v>14.23448025806599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.31748614837451</v>
+      </c>
+      <c r="P20">
+        <v>13.47042698445001</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.082875640212988</v>
+        <v>21.3443723704175</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.528877627835207</v>
+        <v>9.469633400037857</v>
       </c>
       <c r="E21">
-        <v>61.96270877333442</v>
+        <v>17.755660440589</v>
       </c>
       <c r="F21">
-        <v>21.23918815308121</v>
+        <v>35.61014444810036</v>
       </c>
       <c r="G21">
-        <v>29.6541394743308</v>
+        <v>57.43015019575457</v>
       </c>
       <c r="H21">
-        <v>7.115472701732986</v>
+        <v>2.262961001702712</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.233839867662915</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.21114669115939</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.47236371497859</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.83696760858552</v>
       </c>
       <c r="M21">
-        <v>96.29533628744613</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.7039646144967</v>
       </c>
       <c r="O21">
-        <v>15.81280017952712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.27174075724973</v>
+      </c>
+      <c r="P21">
+        <v>13.36797929622434</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.444247248591557</v>
+        <v>22.08550070386756</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.733053521275179</v>
+        <v>9.743553471363692</v>
       </c>
       <c r="E22">
-        <v>65.64565088651482</v>
+        <v>18.28043774190158</v>
       </c>
       <c r="F22">
-        <v>22.57918363124002</v>
+        <v>36.64097556308757</v>
       </c>
       <c r="G22">
-        <v>31.75651644576241</v>
+        <v>59.4753013665141</v>
       </c>
       <c r="H22">
-        <v>7.630493271135075</v>
+        <v>2.490817362872386</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.100611369411661</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.59995972723016</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.35640114617141</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.09915878232538</v>
       </c>
       <c r="M22">
-        <v>101.1192400090786</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>15.22274991038255</v>
       </c>
       <c r="O22">
-        <v>16.90398060036544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.83746818836871</v>
+      </c>
+      <c r="P22">
+        <v>13.30731853476934</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.251997432462067</v>
+        <v>21.71585689788942</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.623897997274149</v>
+        <v>9.595155963559522</v>
       </c>
       <c r="E23">
-        <v>63.64901955300459</v>
+        <v>17.99057392950938</v>
       </c>
       <c r="F23">
-        <v>21.85638845395785</v>
+        <v>36.11950598790902</v>
       </c>
       <c r="G23">
-        <v>30.61989672477182</v>
+        <v>58.42624849328567</v>
       </c>
       <c r="H23">
-        <v>7.351881870825924</v>
+        <v>2.370145436803226</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.160564045812972</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.40156713425233</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.43865336987206</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.95378723958011</v>
       </c>
       <c r="M23">
-        <v>98.52114456293816</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.93258137519428</v>
       </c>
       <c r="O23">
-        <v>16.31431404874428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.53769790651165</v>
+      </c>
+      <c r="P23">
+        <v>13.3331333251186</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.507833109957433</v>
+        <v>20.21525720556971</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.211184272765846</v>
+        <v>9.027400224216381</v>
       </c>
       <c r="E24">
-        <v>56.62037688351317</v>
+        <v>16.88580643657881</v>
       </c>
       <c r="F24">
-        <v>19.25189417872811</v>
+        <v>34.07914238646912</v>
       </c>
       <c r="G24">
-        <v>26.5733516262747</v>
+        <v>54.30160509943548</v>
       </c>
       <c r="H24">
-        <v>6.363690689837788</v>
+        <v>1.906560294902861</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.409862375620328</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.63379025114677</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.72506580966018</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.4025884732297</v>
       </c>
       <c r="M24">
-        <v>89.06172381140112</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.81602123426318</v>
       </c>
       <c r="O24">
-        <v>14.20936388805167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.36112004344519</v>
+      </c>
+      <c r="P24">
+        <v>13.44593564610721</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.786365567608112</v>
+        <v>18.46027177322255</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.753334874915704</v>
+        <v>8.392185664178511</v>
       </c>
       <c r="E25">
-        <v>49.53754029180489</v>
+        <v>15.63970979739884</v>
       </c>
       <c r="F25">
-        <v>16.57592341878781</v>
+        <v>31.83780656395737</v>
       </c>
       <c r="G25">
-        <v>22.49141401734124</v>
+        <v>49.66066686010079</v>
       </c>
       <c r="H25">
-        <v>5.375279752860523</v>
+        <v>1.732493223757749</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.689003201719091</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.80315192474519</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.05225894415848</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.785562557490088</v>
       </c>
       <c r="M25">
-        <v>79.07566909849226</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.61871968983855</v>
       </c>
       <c r="O25">
-        <v>12.07334426777474</v>
+        <v>16.00678516191207</v>
+      </c>
+      <c r="P25">
+        <v>13.5767504579258</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.11954801904624</v>
+        <v>16.70663441648384</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.896383252773697</v>
+        <v>7.727393862255694</v>
       </c>
       <c r="E2">
-        <v>14.64289935538869</v>
+        <v>14.41783245893751</v>
       </c>
       <c r="F2">
-        <v>30.23807862363797</v>
+        <v>29.91959210133641</v>
       </c>
       <c r="G2">
-        <v>46.1988322301139</v>
+        <v>45.36771824872709</v>
       </c>
       <c r="H2">
-        <v>2.132122663840958</v>
+        <v>2.036623026967826</v>
       </c>
       <c r="I2">
-        <v>3.879707073045829</v>
+        <v>3.637935558685942</v>
       </c>
       <c r="J2">
-        <v>13.21686546218632</v>
+        <v>13.65189792562584</v>
       </c>
       <c r="K2">
-        <v>16.35743713443832</v>
+        <v>15.57969652566532</v>
       </c>
       <c r="L2">
-        <v>9.295544503185845</v>
+        <v>12.30073121757257</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.68170830365945</v>
       </c>
       <c r="N2">
-        <v>11.66359353189064</v>
+        <v>9.155778844192836</v>
       </c>
       <c r="O2">
-        <v>14.939543547879</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.66800786191364</v>
+        <v>11.98839813791712</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.95735704584077</v>
+      </c>
+      <c r="R2">
+        <v>13.54251737384816</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.10280786986811</v>
+        <v>15.72495798129569</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.551364748749763</v>
+        <v>7.388774536241371</v>
       </c>
       <c r="E3">
-        <v>13.95380385136354</v>
+        <v>13.71087372237703</v>
       </c>
       <c r="F3">
-        <v>29.09771064583633</v>
+        <v>28.82693972440085</v>
       </c>
       <c r="G3">
-        <v>43.69869644985326</v>
+        <v>42.93121306161433</v>
       </c>
       <c r="H3">
-        <v>2.413863836917156</v>
+        <v>2.299567409384499</v>
       </c>
       <c r="I3">
-        <v>4.028301138648425</v>
+        <v>3.7654663191614</v>
       </c>
       <c r="J3">
-        <v>12.80724483963747</v>
+        <v>13.23065737953484</v>
       </c>
       <c r="K3">
-        <v>16.5438064475875</v>
+        <v>15.77408253310663</v>
       </c>
       <c r="L3">
-        <v>8.960003262898779</v>
+        <v>12.48087526544361</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.83676711907699</v>
       </c>
       <c r="N3">
-        <v>11.00602413028947</v>
+        <v>8.807451219219796</v>
       </c>
       <c r="O3">
-        <v>14.17389664194217</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.74251825459129</v>
+        <v>11.30930205072931</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.18874466565248</v>
+      </c>
+      <c r="R3">
+        <v>13.58587639744668</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.44246205533016</v>
+        <v>15.08549871342793</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.333230676649545</v>
+        <v>7.174577629629786</v>
       </c>
       <c r="E4">
-        <v>13.51635979124664</v>
+        <v>13.26164656791526</v>
       </c>
       <c r="F4">
-        <v>28.39160595451753</v>
+        <v>28.14813205099767</v>
       </c>
       <c r="G4">
-        <v>42.11913902796704</v>
+        <v>41.39383601523294</v>
       </c>
       <c r="H4">
-        <v>2.591983012242199</v>
+        <v>2.465895623774589</v>
       </c>
       <c r="I4">
-        <v>4.122916209317395</v>
+        <v>3.846989104727301</v>
       </c>
       <c r="J4">
-        <v>12.5566858950419</v>
+        <v>12.96791092372525</v>
       </c>
       <c r="K4">
-        <v>16.66133475040647</v>
+        <v>15.89537272209276</v>
       </c>
       <c r="L4">
-        <v>8.748277475680984</v>
+        <v>12.5948481708787</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.94491752551474</v>
       </c>
       <c r="N4">
-        <v>10.58637583502169</v>
+        <v>8.587633380504107</v>
       </c>
       <c r="O4">
-        <v>13.68403319043103</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.7907910143341</v>
+        <v>10.87639949733014</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.69636730039651</v>
+      </c>
+      <c r="R4">
+        <v>13.61568076627509</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.15639136133023</v>
+        <v>14.80806605064048</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.243602206937963</v>
+        <v>7.086577092025911</v>
       </c>
       <c r="E5">
-        <v>13.33801716057018</v>
+        <v>13.07832655659937</v>
       </c>
       <c r="F5">
-        <v>28.09379357889967</v>
+        <v>27.86136614699531</v>
       </c>
       <c r="G5">
-        <v>41.45152604372881</v>
+        <v>40.74481292661736</v>
       </c>
       <c r="H5">
-        <v>2.666156955960187</v>
+        <v>2.535178136890216</v>
       </c>
       <c r="I5">
-        <v>4.164828340871997</v>
+        <v>3.883943011536811</v>
       </c>
       <c r="J5">
-        <v>12.45211480266933</v>
+        <v>12.85727819168108</v>
       </c>
       <c r="K5">
-        <v>16.70475339715472</v>
+        <v>15.94046576916005</v>
       </c>
       <c r="L5">
-        <v>8.66231219069817</v>
+        <v>12.63695197883395</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.99007905513571</v>
       </c>
       <c r="N5">
-        <v>10.41697473989568</v>
+        <v>8.498336984323295</v>
       </c>
       <c r="O5">
-        <v>13.47957559875621</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.81221705747909</v>
+        <v>10.70126967556818</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.49071088249298</v>
+      </c>
+      <c r="R5">
+        <v>13.62982275824589</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.09854280096548</v>
+        <v>14.75204925428853</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.22964045019217</v>
+        <v>7.072894806266183</v>
       </c>
       <c r="E6">
-        <v>13.3124595803763</v>
+        <v>13.05192898221377</v>
       </c>
       <c r="F6">
-        <v>28.03336021409526</v>
+        <v>27.80329858761227</v>
       </c>
       <c r="G6">
-        <v>41.32365346642653</v>
+        <v>40.62086388777179</v>
       </c>
       <c r="H6">
-        <v>2.678872430764675</v>
+        <v>2.547054338882238</v>
       </c>
       <c r="I6">
-        <v>4.175017967878126</v>
+        <v>3.89386126141746</v>
       </c>
       <c r="J6">
-        <v>12.43133516286038</v>
+        <v>12.83562433597783</v>
       </c>
       <c r="K6">
-        <v>16.70561482782024</v>
+        <v>15.94210298273536</v>
       </c>
       <c r="L6">
-        <v>8.650070594709332</v>
+        <v>12.63767174435151</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.99520508466124</v>
       </c>
       <c r="N6">
-        <v>10.39532767002508</v>
+        <v>8.485550363918582</v>
       </c>
       <c r="O6">
-        <v>13.44528202426473</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.81720349917541</v>
+        <v>10.67824484628797</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.4562096312534</v>
+      </c>
+      <c r="R6">
+        <v>13.63370913929256</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.41242188050614</v>
+        <v>15.05238491738274</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.334769285164952</v>
+        <v>7.167356776630997</v>
       </c>
       <c r="E7">
-        <v>13.52547228289302</v>
+        <v>13.25881568567851</v>
       </c>
       <c r="F7">
-        <v>28.35815755951678</v>
+        <v>28.08726988118104</v>
       </c>
       <c r="G7">
-        <v>42.06626519778632</v>
+        <v>41.41808499121358</v>
       </c>
       <c r="H7">
-        <v>2.59382584231222</v>
+        <v>2.468714635666305</v>
       </c>
       <c r="I7">
-        <v>4.131879252096526</v>
+        <v>3.85783189045769</v>
       </c>
       <c r="J7">
-        <v>12.54598312355578</v>
+        <v>12.88694826293928</v>
       </c>
       <c r="K7">
-        <v>16.64445324448792</v>
+        <v>15.87681330917957</v>
       </c>
       <c r="L7">
-        <v>8.752865799532804</v>
+        <v>12.57512063450223</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.93676835332128</v>
       </c>
       <c r="N7">
-        <v>10.60204982283996</v>
+        <v>8.588361446907026</v>
       </c>
       <c r="O7">
-        <v>13.6811218573654</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.79498394597821</v>
+        <v>10.88234176172178</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.68680335772239</v>
+      </c>
+      <c r="R7">
+        <v>13.62128900207847</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.74426269992564</v>
+        <v>16.33171862115509</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.782213866184152</v>
+        <v>7.587522227371577</v>
       </c>
       <c r="E8">
-        <v>14.42279543894658</v>
+        <v>14.15432221077513</v>
       </c>
       <c r="F8">
-        <v>29.8091907407466</v>
+        <v>29.41693780210602</v>
       </c>
       <c r="G8">
-        <v>45.29214906238506</v>
+        <v>44.71761645682236</v>
       </c>
       <c r="H8">
-        <v>2.229263143148819</v>
+        <v>2.130739696633516</v>
       </c>
       <c r="I8">
-        <v>3.940862568400668</v>
+        <v>3.695283664128038</v>
       </c>
       <c r="J8">
-        <v>13.0636844651863</v>
+        <v>13.26990159172703</v>
       </c>
       <c r="K8">
-        <v>16.39797239525991</v>
+        <v>15.61529871082064</v>
       </c>
       <c r="L8">
-        <v>9.188441482746949</v>
+        <v>12.33199131412523</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.71527754059236</v>
       </c>
       <c r="N8">
-        <v>11.46230840840252</v>
+        <v>9.03205872742884</v>
       </c>
       <c r="O8">
-        <v>14.67948630831848</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.69882694595626</v>
+        <v>11.75185597771287</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.67567729826187</v>
+      </c>
+      <c r="R8">
+        <v>13.56736159900472</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.10855761618977</v>
+        <v>18.60341982917988</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.604949881494161</v>
+        <v>8.388574922693113</v>
       </c>
       <c r="E9">
-        <v>16.04885301921964</v>
+        <v>15.81280934718225</v>
       </c>
       <c r="F9">
-        <v>32.64386941522584</v>
+        <v>32.10425137630585</v>
       </c>
       <c r="G9">
-        <v>51.31469050034874</v>
+        <v>50.62949571011814</v>
       </c>
       <c r="H9">
-        <v>1.569076869434713</v>
+        <v>1.619812093289055</v>
       </c>
       <c r="I9">
-        <v>3.578633704543462</v>
+        <v>3.383675366202341</v>
       </c>
       <c r="J9">
-        <v>14.09797719507447</v>
+        <v>14.25933592275023</v>
       </c>
       <c r="K9">
-        <v>15.97102460918603</v>
+        <v>15.15704024431526</v>
       </c>
       <c r="L9">
-        <v>9.986956724032394</v>
+        <v>11.92028885826587</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.40816685904785</v>
       </c>
       <c r="N9">
-        <v>12.99031041360938</v>
+        <v>9.857912374605817</v>
       </c>
       <c r="O9">
-        <v>16.47460005908108</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.52276502094589</v>
+        <v>13.32964794551807</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.4712189579201</v>
+      </c>
+      <c r="R9">
+        <v>13.47446696338268</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.60032049875772</v>
+        <v>20.01726482813827</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.19969181495534</v>
+        <v>8.923283498329345</v>
       </c>
       <c r="E10">
-        <v>17.25707834857284</v>
+        <v>16.98080096028527</v>
       </c>
       <c r="F10">
-        <v>34.48174844926516</v>
+        <v>33.69663319430198</v>
       </c>
       <c r="G10">
-        <v>55.21625905589976</v>
+        <v>54.82231365922882</v>
       </c>
       <c r="H10">
-        <v>2.026448223991891</v>
+        <v>2.039742359917547</v>
       </c>
       <c r="I10">
-        <v>3.338282881598843</v>
+        <v>3.182808826560377</v>
       </c>
       <c r="J10">
-        <v>14.792599652731</v>
+        <v>14.54503909283352</v>
       </c>
       <c r="K10">
-        <v>15.61034440645296</v>
+        <v>14.76330159977036</v>
       </c>
       <c r="L10">
-        <v>10.5911696848895</v>
+        <v>11.58469508102777</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.19828041433806</v>
       </c>
       <c r="N10">
-        <v>14.0265254409491</v>
+        <v>10.46004955649243</v>
       </c>
       <c r="O10">
-        <v>17.61391734669745</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>13.43020289330766</v>
+        <v>14.27858983594329</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.57679337186116</v>
+      </c>
+      <c r="R10">
+        <v>13.4563069118153</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.73455768801379</v>
+        <v>20.16676139398006</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.633629567539638</v>
+        <v>9.253321079255141</v>
       </c>
       <c r="E11">
-        <v>18.49422631671989</v>
+        <v>18.08471910717939</v>
       </c>
       <c r="F11">
-        <v>33.70250252274963</v>
+        <v>32.66814448046342</v>
       </c>
       <c r="G11">
-        <v>54.67879035227566</v>
+        <v>55.13685824799036</v>
       </c>
       <c r="H11">
-        <v>2.951667181341886</v>
+        <v>2.946965258743382</v>
       </c>
       <c r="I11">
-        <v>3.296985011283694</v>
+        <v>3.159509079195102</v>
       </c>
       <c r="J11">
-        <v>14.58824940990185</v>
+        <v>13.59061635448175</v>
       </c>
       <c r="K11">
-        <v>14.9741183565635</v>
+        <v>14.20502807579931</v>
       </c>
       <c r="L11">
-        <v>11.25526202781965</v>
+        <v>11.17766850358743</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.788657957090178</v>
       </c>
       <c r="N11">
-        <v>13.79292172815527</v>
+        <v>11.08251774085026</v>
       </c>
       <c r="O11">
-        <v>17.47376850118291</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>13.61011625532858</v>
+        <v>13.84858870445934</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.3703337651833</v>
+      </c>
+      <c r="R11">
+        <v>13.68702271429165</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.56963326784373</v>
+        <v>20.04246540860151</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.877421277205542</v>
+        <v>9.445316086954753</v>
       </c>
       <c r="E12">
-        <v>19.302987767242</v>
+        <v>18.81661598302325</v>
       </c>
       <c r="F12">
-        <v>32.67196649308482</v>
+        <v>31.56560368538328</v>
       </c>
       <c r="G12">
-        <v>53.44273352618105</v>
+        <v>54.35411904267446</v>
       </c>
       <c r="H12">
-        <v>4.210820175069379</v>
+        <v>4.204449872979349</v>
       </c>
       <c r="I12">
-        <v>3.294125944743902</v>
+        <v>3.159620544010469</v>
       </c>
       <c r="J12">
-        <v>14.27216461467301</v>
+        <v>12.94973234407731</v>
       </c>
       <c r="K12">
-        <v>14.57452931867592</v>
+        <v>13.88508883223968</v>
       </c>
       <c r="L12">
-        <v>11.70614742531773</v>
+        <v>10.96650915007997</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.525351672521607</v>
       </c>
       <c r="N12">
-        <v>13.35042015222228</v>
+        <v>11.50578251774763</v>
       </c>
       <c r="O12">
-        <v>17.11148325386178</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>13.79913752641506</v>
+        <v>13.28159760121097</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.97823811345555</v>
+      </c>
+      <c r="R12">
+        <v>13.8922396324066</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.12873874284082</v>
+        <v>19.67559639295041</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.997320099079667</v>
+        <v>9.571072631219916</v>
       </c>
       <c r="E13">
-        <v>19.86144414834377</v>
+        <v>19.36675253817913</v>
       </c>
       <c r="F13">
-        <v>31.31597485466684</v>
+        <v>30.3343949506057</v>
       </c>
       <c r="G13">
-        <v>51.48848083614953</v>
+        <v>52.43766379642828</v>
       </c>
       <c r="H13">
-        <v>5.522283565825072</v>
+        <v>5.519766618865118</v>
       </c>
       <c r="I13">
-        <v>3.334626420228874</v>
+        <v>3.193265497338194</v>
       </c>
       <c r="J13">
-        <v>13.82898699022819</v>
+        <v>12.63799652217197</v>
       </c>
       <c r="K13">
-        <v>14.31226883844283</v>
+        <v>13.70658421577933</v>
       </c>
       <c r="L13">
-        <v>12.03315803425305</v>
+        <v>10.85598729843007</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.355810827601058</v>
       </c>
       <c r="N13">
-        <v>12.72681272331582</v>
+        <v>11.82576197807804</v>
       </c>
       <c r="O13">
-        <v>16.54611484037029</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>14.00657479989032</v>
+        <v>12.61011917858278</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.42205393772113</v>
+      </c>
+      <c r="R13">
+        <v>14.08309935289643</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.68289439423624</v>
+        <v>19.29753288025224</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.02774987052007</v>
+        <v>9.632317562525108</v>
       </c>
       <c r="E14">
-        <v>20.15132448042233</v>
+        <v>19.68247098453781</v>
       </c>
       <c r="F14">
-        <v>30.19768143402064</v>
+        <v>29.39095818832623</v>
       </c>
       <c r="G14">
-        <v>49.75664332787309</v>
+        <v>50.55032910318028</v>
       </c>
       <c r="H14">
-        <v>6.461361330821854</v>
+        <v>6.462178372057105</v>
       </c>
       <c r="I14">
-        <v>3.38513051918929</v>
+        <v>3.235170591574323</v>
       </c>
       <c r="J14">
-        <v>13.45483749301406</v>
+        <v>12.55418836546792</v>
       </c>
       <c r="K14">
-        <v>14.19687455021034</v>
+        <v>13.64454648516052</v>
       </c>
       <c r="L14">
-        <v>12.21252332487584</v>
+        <v>10.81663581788078</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.285824211218243</v>
       </c>
       <c r="N14">
-        <v>12.20389352737505</v>
+        <v>12.00982159000278</v>
       </c>
       <c r="O14">
-        <v>16.05099677696</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>14.16226407575652</v>
+        <v>12.07365551743399</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.95031729031751</v>
+      </c>
+      <c r="R14">
+        <v>14.21120210965798</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.50592704036908</v>
+        <v>19.14405415576284</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.00944072904124</v>
+        <v>9.633268083723602</v>
       </c>
       <c r="E15">
-        <v>20.17095357569839</v>
+        <v>19.72258053075581</v>
       </c>
       <c r="F15">
-        <v>29.84640062861014</v>
+        <v>29.11992895061929</v>
       </c>
       <c r="G15">
-        <v>49.16332918657556</v>
+        <v>49.84090905020701</v>
       </c>
       <c r="H15">
-        <v>6.673534436455824</v>
+        <v>6.675710311532971</v>
       </c>
       <c r="I15">
-        <v>3.411038786434085</v>
+        <v>3.257659205403083</v>
       </c>
       <c r="J15">
-        <v>13.33393818701018</v>
+        <v>12.58866963663667</v>
       </c>
       <c r="K15">
-        <v>14.19050762524207</v>
+        <v>13.65046427490002</v>
       </c>
       <c r="L15">
-        <v>12.23006636911208</v>
+        <v>10.81807244642975</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.285675813591036</v>
       </c>
       <c r="N15">
-        <v>12.04074279521649</v>
+        <v>12.03303142063161</v>
       </c>
       <c r="O15">
-        <v>15.88636019275935</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>14.20315792773026</v>
+        <v>11.91422641877729</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.79863309610641</v>
+      </c>
+      <c r="R15">
+        <v>14.23915672695698</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.93746346037915</v>
+        <v>18.62927270945855</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.7451631802229</v>
+        <v>9.467049297814739</v>
       </c>
       <c r="E16">
-        <v>19.59954575121495</v>
+        <v>19.27012966796011</v>
       </c>
       <c r="F16">
-        <v>29.24314114666764</v>
+        <v>28.82319441338661</v>
       </c>
       <c r="G16">
-        <v>47.73764032943003</v>
+        <v>47.7583919143492</v>
       </c>
       <c r="H16">
-        <v>6.465706156219129</v>
+        <v>6.458957575487681</v>
       </c>
       <c r="I16">
-        <v>3.511304783142009</v>
+        <v>3.339646506373992</v>
       </c>
       <c r="J16">
-        <v>13.09850935356529</v>
+        <v>13.05071508921106</v>
       </c>
       <c r="K16">
-        <v>14.39777150568315</v>
+        <v>13.85414488392002</v>
       </c>
       <c r="L16">
-        <v>11.92944299022927</v>
+        <v>10.92984701968978</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.448478117701507</v>
       </c>
       <c r="N16">
-        <v>11.67784899291944</v>
+        <v>11.77070589988644</v>
       </c>
       <c r="O16">
-        <v>15.49246000145692</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>14.18606887363952</v>
+        <v>11.66460485824065</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.46468951877816</v>
+      </c>
+      <c r="R16">
+        <v>14.17201479209728</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.74079777724844</v>
+        <v>18.43122600951422</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.522296509089312</v>
+        <v>9.289073432620395</v>
       </c>
       <c r="E17">
-        <v>18.99003125039706</v>
+        <v>18.71938855310575</v>
       </c>
       <c r="F17">
-        <v>29.39744745824676</v>
+        <v>29.07994668076152</v>
       </c>
       <c r="G17">
-        <v>47.60277738970534</v>
+        <v>47.29296669404558</v>
       </c>
       <c r="H17">
-        <v>5.728009968018376</v>
+        <v>5.716860830988176</v>
       </c>
       <c r="I17">
-        <v>3.561988373867699</v>
+        <v>3.381566752615337</v>
       </c>
       <c r="J17">
-        <v>13.12378963878222</v>
+        <v>13.36306728342872</v>
       </c>
       <c r="K17">
-        <v>14.61132534005414</v>
+        <v>14.04264428604154</v>
       </c>
       <c r="L17">
-        <v>11.59503022736802</v>
+        <v>11.04879368002397</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.600139543909449</v>
       </c>
       <c r="N17">
-        <v>11.68821364192828</v>
+        <v>11.45633100193032</v>
       </c>
       <c r="O17">
-        <v>15.46106482435044</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>14.09195413344777</v>
+        <v>11.77428379941124</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.45874766770355</v>
+      </c>
+      <c r="R17">
+        <v>14.05960527754597</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.86721545135885</v>
+        <v>18.51521124579524</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.310572511762908</v>
+        <v>9.097721177001389</v>
       </c>
       <c r="E18">
-        <v>18.28267652771994</v>
+        <v>18.0467938650201</v>
       </c>
       <c r="F18">
-        <v>30.23480890806225</v>
+        <v>29.90919765233923</v>
       </c>
       <c r="G18">
-        <v>48.59738591747725</v>
+        <v>48.07602621283252</v>
       </c>
       <c r="H18">
-        <v>4.46312015366808</v>
+        <v>4.447200803827118</v>
       </c>
       <c r="I18">
-        <v>3.564979507643436</v>
+        <v>3.380643600821341</v>
       </c>
       <c r="J18">
-        <v>13.37930834413068</v>
+        <v>13.71804628618273</v>
       </c>
       <c r="K18">
-        <v>14.88570065417679</v>
+        <v>14.26855347482884</v>
       </c>
       <c r="L18">
-        <v>11.1984500643933</v>
+        <v>11.21189136184399</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.775067193661698</v>
       </c>
       <c r="N18">
-        <v>12.01685544635751</v>
+        <v>11.07332254081942</v>
       </c>
       <c r="O18">
-        <v>15.74020919217919</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.9247542576469</v>
+        <v>12.19627955355442</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.74808054221643</v>
+      </c>
+      <c r="R18">
+        <v>13.89161568994478</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.2006429272365</v>
+        <v>18.78254538272929</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.132756700519913</v>
+        <v>8.926069842131664</v>
       </c>
       <c r="E19">
-        <v>17.5948164949839</v>
+        <v>17.37861784885051</v>
       </c>
       <c r="F19">
-        <v>31.49240262974471</v>
+        <v>31.09691365958644</v>
       </c>
       <c r="G19">
-        <v>50.33094698089489</v>
+        <v>49.66037073441444</v>
       </c>
       <c r="H19">
-        <v>2.960376828726045</v>
+        <v>2.984586805131304</v>
       </c>
       <c r="I19">
-        <v>3.544531213213872</v>
+        <v>3.363939480721213</v>
       </c>
       <c r="J19">
-        <v>13.77904750261605</v>
+        <v>14.11769509666309</v>
       </c>
       <c r="K19">
-        <v>15.20043014433747</v>
+        <v>14.51547615623725</v>
       </c>
       <c r="L19">
-        <v>10.81078596188766</v>
+        <v>11.40268752794299</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.961705447992122</v>
       </c>
       <c r="N19">
-        <v>12.59980803681515</v>
+        <v>10.69429526150257</v>
       </c>
       <c r="O19">
-        <v>16.24014863168727</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>13.73894668598318</v>
+        <v>12.85908844642129</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.25008797622454</v>
+      </c>
+      <c r="R19">
+        <v>13.71330131095537</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.15349112452455</v>
+        <v>19.60660093281431</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.053798499437818</v>
+        <v>8.819878470005769</v>
       </c>
       <c r="E20">
-        <v>16.97873209348445</v>
+        <v>16.74867654846341</v>
       </c>
       <c r="F20">
-        <v>33.91696862238439</v>
+        <v>33.28998755924174</v>
       </c>
       <c r="G20">
-        <v>54.08737804749768</v>
+        <v>53.41256393852127</v>
       </c>
       <c r="H20">
-        <v>1.903886387965295</v>
+        <v>1.930474399131507</v>
       </c>
       <c r="I20">
-        <v>3.428384723347056</v>
+        <v>3.266153789415056</v>
       </c>
       <c r="J20">
-        <v>14.58277672501224</v>
+        <v>14.66697832638441</v>
       </c>
       <c r="K20">
-        <v>15.64778033347856</v>
+        <v>14.82862134948626</v>
       </c>
       <c r="L20">
-        <v>10.45269287882661</v>
+        <v>11.64354415741037</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.21944177905325</v>
       </c>
       <c r="N20">
-        <v>13.78775780396691</v>
+        <v>10.33451140708014</v>
       </c>
       <c r="O20">
-        <v>17.31748614837451</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>13.47042698445001</v>
+        <v>14.09593750768735</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.30861723423241</v>
+      </c>
+      <c r="R20">
+        <v>13.47243754502016</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.3443723704175</v>
+        <v>20.6611187961442</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.469633400037857</v>
+        <v>9.054904004001314</v>
       </c>
       <c r="E21">
-        <v>17.755660440589</v>
+        <v>17.31509279405049</v>
       </c>
       <c r="F21">
-        <v>35.61014444810036</v>
+        <v>34.31695464566268</v>
       </c>
       <c r="G21">
-        <v>57.43015019575457</v>
+        <v>58.03112187892038</v>
       </c>
       <c r="H21">
-        <v>2.262961001702712</v>
+        <v>2.243286215375825</v>
       </c>
       <c r="I21">
-        <v>3.233839867662915</v>
+        <v>3.110243037769634</v>
       </c>
       <c r="J21">
-        <v>15.21114669115939</v>
+        <v>13.82719534861882</v>
       </c>
       <c r="K21">
-        <v>15.47236371497859</v>
+        <v>14.5488720769335</v>
       </c>
       <c r="L21">
-        <v>10.83696760858552</v>
+        <v>11.41210952334735</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.09026867741357</v>
       </c>
       <c r="N21">
-        <v>14.7039646144967</v>
+        <v>10.65496606957335</v>
       </c>
       <c r="O21">
-        <v>18.27174075724973</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>13.36797929622434</v>
+        <v>14.80531051707448</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.13730316155923</v>
+      </c>
+      <c r="R21">
+        <v>13.45989487360989</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.08550070386756</v>
+        <v>21.31460468184683</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.743553471363692</v>
+        <v>9.20750366843078</v>
       </c>
       <c r="E22">
-        <v>18.28043774190158</v>
+        <v>17.69567990759854</v>
       </c>
       <c r="F22">
-        <v>36.64097556308757</v>
+        <v>34.89305989521281</v>
       </c>
       <c r="G22">
-        <v>59.4753013665141</v>
+        <v>60.9551309735845</v>
       </c>
       <c r="H22">
-        <v>2.490817362872386</v>
+        <v>2.440800998924251</v>
       </c>
       <c r="I22">
-        <v>3.100611369411661</v>
+        <v>3.000007045376977</v>
       </c>
       <c r="J22">
-        <v>15.59995972723016</v>
+        <v>13.19478659168195</v>
       </c>
       <c r="K22">
-        <v>15.35640114617141</v>
+        <v>14.3602937626116</v>
       </c>
       <c r="L22">
-        <v>11.09915878232538</v>
+        <v>11.26098360645969</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.01103177326827</v>
       </c>
       <c r="N22">
-        <v>15.22274991038255</v>
+        <v>10.87255168042805</v>
       </c>
       <c r="O22">
-        <v>18.83746818836871</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>13.30731853476934</v>
+        <v>15.18770921003416</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.61611361692561</v>
+      </c>
+      <c r="R22">
+        <v>13.4622921045475</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.71585689788942</v>
+        <v>20.99884069496521</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.595155963559522</v>
+        <v>9.141468219467681</v>
       </c>
       <c r="E23">
-        <v>17.99057392950938</v>
+        <v>17.50672305871584</v>
       </c>
       <c r="F23">
-        <v>36.11950598790902</v>
+        <v>34.67542344730176</v>
       </c>
       <c r="G23">
-        <v>58.42624849328567</v>
+        <v>59.28875219098661</v>
       </c>
       <c r="H23">
-        <v>2.370145436803226</v>
+        <v>2.338367735014125</v>
       </c>
       <c r="I23">
-        <v>3.160564045812972</v>
+        <v>3.044604721911614</v>
       </c>
       <c r="J23">
-        <v>15.40156713425233</v>
+        <v>13.69643135577297</v>
       </c>
       <c r="K23">
-        <v>15.43865336987206</v>
+        <v>14.48560158823462</v>
       </c>
       <c r="L23">
-        <v>10.95378723958011</v>
+        <v>11.3573548041063</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.07408281708129</v>
       </c>
       <c r="N23">
-        <v>14.93258137519428</v>
+        <v>10.75922412034672</v>
       </c>
       <c r="O23">
-        <v>18.53769790651165</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>13.3331333251186</v>
+        <v>14.98576016982683</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.37621933839025</v>
+      </c>
+      <c r="R23">
+        <v>13.44893054506899</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.21525720556971</v>
+        <v>19.66051905966218</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.027400224216381</v>
+        <v>8.795124588596476</v>
       </c>
       <c r="E24">
-        <v>16.88580643657881</v>
+        <v>16.65814725076674</v>
       </c>
       <c r="F24">
-        <v>34.07914238646912</v>
+        <v>33.44652890036081</v>
       </c>
       <c r="G24">
-        <v>54.30160509943548</v>
+        <v>53.59982794292787</v>
       </c>
       <c r="H24">
-        <v>1.906560294902861</v>
+        <v>1.93318611141064</v>
       </c>
       <c r="I24">
-        <v>3.409862375620328</v>
+        <v>3.244508111840847</v>
       </c>
       <c r="J24">
-        <v>14.63379025114677</v>
+        <v>14.72612584037377</v>
       </c>
       <c r="K24">
-        <v>15.72506580966018</v>
+        <v>14.89242034273488</v>
       </c>
       <c r="L24">
-        <v>10.4025884732297</v>
+        <v>11.69178509291129</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.26845766934051</v>
       </c>
       <c r="N24">
-        <v>13.81602123426318</v>
+        <v>10.28488545957154</v>
       </c>
       <c r="O24">
-        <v>17.36112004344519</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>13.44593564610721</v>
+        <v>14.13339344976409</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.35318847071942</v>
+      </c>
+      <c r="R24">
+        <v>13.44600018882558</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.46027177322255</v>
+        <v>17.98753833805605</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.392185664178511</v>
+        <v>8.19311639702501</v>
       </c>
       <c r="E25">
-        <v>15.63970979739884</v>
+        <v>15.41088021504815</v>
       </c>
       <c r="F25">
-        <v>31.83780656395737</v>
+        <v>31.37941649266961</v>
       </c>
       <c r="G25">
-        <v>49.66066686010079</v>
+        <v>48.91478090040837</v>
       </c>
       <c r="H25">
-        <v>1.732493223757749</v>
+        <v>1.666520928767891</v>
       </c>
       <c r="I25">
-        <v>3.689003201719091</v>
+        <v>3.482533920777164</v>
       </c>
       <c r="J25">
-        <v>13.80315192474519</v>
+        <v>14.07440592465665</v>
       </c>
       <c r="K25">
-        <v>16.05225894415848</v>
+        <v>15.25623907834185</v>
       </c>
       <c r="L25">
-        <v>9.785562557490088</v>
+        <v>12.00991724375385</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.46298030986509</v>
       </c>
       <c r="N25">
-        <v>12.61871968983855</v>
+        <v>9.65461682679895</v>
       </c>
       <c r="O25">
-        <v>16.00678516191207</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13.5767504579258</v>
+        <v>12.95377190088535</v>
       </c>
       <c r="Q25">
+        <v>16.01212316901244</v>
+      </c>
+      <c r="R25">
+        <v>13.50406638382447</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
